--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_16_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57902.73841843882</v>
+        <v>45890.75375503391</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20177999.97821354</v>
+        <v>20192728.64563376</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2896680.076447572</v>
+        <v>2893055.549951643</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>53.05253676699684</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.19493633782723</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.3748212697451</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>60.2322170379165</v>
       </c>
-      <c r="S11" t="n">
+      <c r="W11" t="n">
         <v>60.2322170379165</v>
       </c>
-      <c r="T11" t="n">
+      <c r="X11" t="n">
         <v>60.2322170379165</v>
-      </c>
-      <c r="U11" t="n">
-        <v>21.48277915942451</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>22.000745178859</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>9.322780213904736</v>
       </c>
       <c r="R12" t="n">
-        <v>54.97016096830681</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
+        <v>43.7297565530921</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>60.2322170379165</v>
       </c>
-      <c r="T12" t="n">
+      <c r="X12" t="n">
         <v>60.2322170379165</v>
       </c>
-      <c r="U12" t="n">
-        <v>26.99106744384277</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
     </row>
     <row r="13">
@@ -1624,46 +1624,46 @@
         <v>60.2322170379165</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>16.19493633782723</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
         <v>60.2322170379165</v>
       </c>
-      <c r="I14" t="n">
-        <v>53.05253676699684</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>36.85760042916962</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,49 +1697,49 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>54.97016096830681</v>
+      </c>
+      <c r="S15" t="n">
         <v>60.2322170379165</v>
       </c>
-      <c r="G15" t="n">
-        <v>60.2322170379165</v>
-      </c>
-      <c r="H15" t="n">
-        <v>48.62143996562181</v>
-      </c>
-      <c r="I15" t="n">
-        <v>42.66256866043251</v>
-      </c>
-      <c r="J15" t="n">
-        <v>22.00074517885901</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>58.31459283660652</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,28 +1888,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6342588544005139</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.44572868511968</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.03885183617756</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>94.03885183617756</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>94.03885183617756</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>25.74943315778501</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>41.0893670125313</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="F18" t="n">
-        <v>94.03885183617756</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>94.03885183617756</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>80.53030557895501</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>40.14800624017575</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.1005937018207</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>50.43562012484765</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>32.39380057245749</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2040,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.53059393694258</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>7.204738175841207</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>12.7353321127837</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>82.82942069730512</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6342588544005423</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U20" t="n">
-        <v>94.03885183617756</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="W20" t="n">
-        <v>94.03885183617756</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>82.19516184290467</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>94.03885183617756</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>94.03885183617756</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>80.53030557895501</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>40.14800624017575</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>50.43562012484765</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="U21" t="n">
-        <v>56.18996071435198</v>
+        <v>32.39380057245749</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>12.7353321127837</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.73533211278377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27.99555620298329</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.111096708763711</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>56.07678504272414</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="U23" t="n">
-        <v>95.44997870766062</v>
+        <v>79.96124453694372</v>
       </c>
       <c r="V23" t="n">
-        <v>95.44997870766062</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>95.44997870766062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>95.44997870766062</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="E24" t="n">
-        <v>95.44997870766062</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>50.24050730624776</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>33.83183393945969</v>
       </c>
       <c r="X24" t="n">
-        <v>95.44997870766062</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>84.07234124570742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2490,52 +2490,52 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>13.91913838429715</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>84.07234124570748</v>
+      </c>
+      <c r="E26" t="n">
         <v>95.44997870766063</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>84.07234124570745</v>
       </c>
       <c r="F26" t="n">
         <v>95.44997870766063</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>95.44997870766063</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>84.07234124570743</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>14.80369307837766</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50.24050730624776</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>95.44997870766063</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>95.44997870766063</v>
+        <v>19.02814086108204</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>13.91913838429715</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>13.91913838429715</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,28 +2794,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>84.07234124570753</v>
+        <v>79.96124453694368</v>
       </c>
       <c r="D29" t="n">
-        <v>95.44997870766068</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>95.44997870766068</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4.111096708763711</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>95.44997870766068</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.44997870766068</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>14.80369307837766</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.24050730624776</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="T30" t="n">
-        <v>84.07234124570753</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>95.44997870766068</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="Y30" t="n">
-        <v>95.44997870766068</v>
+        <v>19.02814086108197</v>
       </c>
     </row>
     <row r="31">
@@ -2964,52 +2964,52 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>13.91913838429715</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>95.44997870766063</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="F32" t="n">
-        <v>95.44997870766063</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="G32" t="n">
-        <v>95.44997870766063</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>84.07234124570742</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>84.07234124570748</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>84.07234124570743</v>
+        <v>69.26864816732974</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>14.80369307837766</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3164,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>95.44997870766063</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>95.44997870766063</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>95.44997870766063</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.91913838429715</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>13.91913838429711</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,31 +3265,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>95.44997870766066</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>27.99555620298336</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>95.44997870766066</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.111096708763725</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.07678504272414</v>
+        <v>56.07678504272415</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>23.88445949421956</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>95.44997870766066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>84.07234124570748</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="U36" t="n">
-        <v>95.44997870766066</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="V36" t="n">
-        <v>95.44997870766066</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="W36" t="n">
-        <v>95.44997870766066</v>
+        <v>84.07234124570746</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>13.91913838429715</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>13.9191383842971</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>95.44997870766065</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>84.07234124570748</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>79.96124453694374</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4.111096708763725</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="X38" t="n">
-        <v>95.44997870766065</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>95.44997870766065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.80369307837766</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.24050730624776</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>19.02814086108204</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>95.44997870766065</v>
+        <v>84.07234124570742</v>
       </c>
       <c r="V39" t="n">
-        <v>95.44997870766065</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="W39" t="n">
-        <v>95.44997870766065</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>13.91913838429715</v>
+        <v>13.9191383842971</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3748,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>27.99555620298326</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>95.44997870766059</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>95.44997870766059</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>4.111096708763725</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>56.07678504272414</v>
+        <v>56.07678504272415</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>23.88445949421956</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>95.44997870766059</v>
       </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>80.49995530864159</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>40.03980931830453</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>58.98255532642188</v>
       </c>
       <c r="W42" t="n">
         <v>95.44997870766059</v>
       </c>
       <c r="X42" t="n">
-        <v>95.44997870766059</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>84.07234124570742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>13.91913838429711</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>13.91913838429715</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>38.07851529666522</v>
       </c>
       <c r="D44" t="n">
-        <v>95.486274933327</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.36701961397864</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>56.07678504272415</v>
       </c>
       <c r="S44" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>108.4085773539135</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>108.4085773539135</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>108.4085773539135</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>84.07234124570742</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="V45" t="n">
-        <v>95.486274933327</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>23.6819950625737</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>13.91913838429711</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.17709891639416</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="C11" t="n">
-        <v>21.17709891639416</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="D11" t="n">
-        <v>21.17709891639416</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="E11" t="n">
-        <v>21.17709891639416</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="F11" t="n">
-        <v>21.17709891639416</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="G11" t="n">
-        <v>21.17709891639416</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H11" t="n">
-        <v>21.17709891639416</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I11" t="n">
-        <v>21.17709891639416</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J11" t="n">
         <v>4.81857736303332</v>
       </c>
       <c r="K11" t="n">
-        <v>13.76932287133952</v>
+        <v>13.76932287133946</v>
       </c>
       <c r="L11" t="n">
-        <v>48.85965936111254</v>
+        <v>48.85965936111248</v>
       </c>
       <c r="M11" t="n">
         <v>108.4895542286498</v>
       </c>
       <c r="N11" t="n">
-        <v>168.1194490961871</v>
+        <v>168.1194490961872</v>
       </c>
       <c r="O11" t="n">
-        <v>219.5012987724242</v>
+        <v>219.5012987724243</v>
       </c>
       <c r="P11" t="n">
         <v>240.928868151666</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.398745656974</v>
+        <v>240.928868151666</v>
       </c>
       <c r="R11" t="n">
-        <v>164.5581223863512</v>
+        <v>240.928868151666</v>
       </c>
       <c r="S11" t="n">
-        <v>103.7174991157285</v>
+        <v>240.928868151666</v>
       </c>
       <c r="T11" t="n">
-        <v>42.87687584510579</v>
+        <v>240.928868151666</v>
       </c>
       <c r="U11" t="n">
-        <v>21.17709891639416</v>
+        <v>240.928868151666</v>
       </c>
       <c r="V11" t="n">
-        <v>21.17709891639416</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="W11" t="n">
-        <v>21.17709891639416</v>
+        <v>119.2476216104205</v>
       </c>
       <c r="X11" t="n">
-        <v>21.17709891639416</v>
+        <v>58.40699833979781</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.17709891639416</v>
+        <v>58.40699833979781</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="C12" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="D12" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="E12" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="F12" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="G12" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H12" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I12" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J12" t="n">
         <v>4.81857736303332</v>
@@ -5132,10 +5132,10 @@
         <v>126.3837750897203</v>
       </c>
       <c r="N12" t="n">
-        <v>186.0136699572576</v>
+        <v>181.9954725922198</v>
       </c>
       <c r="O12" t="n">
-        <v>206.1961156134105</v>
+        <v>240.928868151666</v>
       </c>
       <c r="P12" t="n">
         <v>240.928868151666</v>
@@ -5144,28 +5144,28 @@
         <v>231.5119184406511</v>
       </c>
       <c r="R12" t="n">
-        <v>175.9865033211493</v>
+        <v>231.5119184406511</v>
       </c>
       <c r="S12" t="n">
-        <v>115.1458800505265</v>
+        <v>187.3404471749015</v>
       </c>
       <c r="T12" t="n">
-        <v>54.3052567799038</v>
+        <v>187.3404471749015</v>
       </c>
       <c r="U12" t="n">
-        <v>27.04155229117373</v>
+        <v>187.3404471749015</v>
       </c>
       <c r="V12" t="n">
-        <v>27.04155229117373</v>
+        <v>187.3404471749015</v>
       </c>
       <c r="W12" t="n">
-        <v>27.04155229117373</v>
+        <v>126.4998239042788</v>
       </c>
       <c r="X12" t="n">
-        <v>27.04155229117373</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.04155229117373</v>
+        <v>4.81857736303332</v>
       </c>
     </row>
     <row r="13">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>240.928868151666</v>
+        <v>142.8583454576396</v>
       </c>
       <c r="C14" t="n">
-        <v>240.928868151666</v>
+        <v>142.8583454576396</v>
       </c>
       <c r="D14" t="n">
-        <v>240.928868151666</v>
+        <v>142.8583454576396</v>
       </c>
       <c r="E14" t="n">
-        <v>240.928868151666</v>
+        <v>142.8583454576396</v>
       </c>
       <c r="F14" t="n">
-        <v>180.0882448810433</v>
+        <v>82.01772218701689</v>
       </c>
       <c r="G14" t="n">
-        <v>119.2476216104205</v>
+        <v>21.17709891639416</v>
       </c>
       <c r="H14" t="n">
-        <v>58.40699833979781</v>
+        <v>21.17709891639416</v>
       </c>
       <c r="I14" t="n">
-        <v>4.81857736303332</v>
+        <v>21.17709891639416</v>
       </c>
       <c r="J14" t="n">
         <v>4.81857736303332</v>
       </c>
       <c r="K14" t="n">
-        <v>13.76932287133951</v>
+        <v>13.76932287133946</v>
       </c>
       <c r="L14" t="n">
-        <v>48.85965936111251</v>
+        <v>48.85965936111248</v>
       </c>
       <c r="M14" t="n">
         <v>108.4895542286498</v>
       </c>
       <c r="N14" t="n">
-        <v>168.1194490961873</v>
+        <v>168.1194490961872</v>
       </c>
       <c r="O14" t="n">
         <v>219.5012987724243</v>
@@ -5308,22 +5308,22 @@
         <v>240.928868151666</v>
       </c>
       <c r="T14" t="n">
-        <v>240.928868151666</v>
+        <v>180.0882448810433</v>
       </c>
       <c r="U14" t="n">
-        <v>240.928868151666</v>
+        <v>142.8583454576396</v>
       </c>
       <c r="V14" t="n">
-        <v>240.928868151666</v>
+        <v>142.8583454576396</v>
       </c>
       <c r="W14" t="n">
-        <v>240.928868151666</v>
+        <v>142.8583454576396</v>
       </c>
       <c r="X14" t="n">
-        <v>240.928868151666</v>
+        <v>142.8583454576396</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.928868151666</v>
+        <v>142.8583454576396</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>240.928868151666</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="C15" t="n">
-        <v>240.928868151666</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="D15" t="n">
-        <v>240.928868151666</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="E15" t="n">
-        <v>240.928868151666</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="F15" t="n">
-        <v>180.0882448810433</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="G15" t="n">
-        <v>119.2476216104205</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="H15" t="n">
-        <v>70.13505598858032</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="I15" t="n">
-        <v>27.04155229117374</v>
+        <v>4.81857736303332</v>
       </c>
       <c r="J15" t="n">
         <v>4.81857736303332</v>
       </c>
       <c r="K15" t="n">
-        <v>18.39246347380758</v>
+        <v>18.39246347380759</v>
       </c>
       <c r="L15" t="n">
-        <v>66.75388022218289</v>
+        <v>66.75388022218293</v>
       </c>
       <c r="M15" t="n">
-        <v>126.3837750897202</v>
+        <v>126.3837750897203</v>
       </c>
       <c r="N15" t="n">
-        <v>147.2627200539644</v>
+        <v>186.0136699572576</v>
       </c>
       <c r="O15" t="n">
-        <v>206.1961156134106</v>
+        <v>206.1961156134105</v>
       </c>
       <c r="P15" t="n">
         <v>240.928868151666</v>
@@ -5381,28 +5381,28 @@
         <v>240.928868151666</v>
       </c>
       <c r="R15" t="n">
-        <v>240.928868151666</v>
+        <v>185.4034530321642</v>
       </c>
       <c r="S15" t="n">
-        <v>240.928868151666</v>
+        <v>124.5628297615414</v>
       </c>
       <c r="T15" t="n">
-        <v>240.928868151666</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="U15" t="n">
-        <v>240.928868151666</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="V15" t="n">
-        <v>240.928868151666</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="W15" t="n">
-        <v>240.928868151666</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="X15" t="n">
-        <v>240.928868151666</v>
+        <v>65.65920063365604</v>
       </c>
       <c r="Y15" t="n">
-        <v>240.928868151666</v>
+        <v>65.65920063365604</v>
       </c>
     </row>
     <row r="16">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.523108146894205</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="C17" t="n">
-        <v>7.523108146894205</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="D17" t="n">
-        <v>7.523108146894205</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="E17" t="n">
-        <v>7.523108146894205</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="F17" t="n">
-        <v>7.523108146894205</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="G17" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="H17" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="I17" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="J17" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="K17" t="n">
-        <v>33.66364674177166</v>
+        <v>33.66364674177161</v>
       </c>
       <c r="L17" t="n">
-        <v>90.07944158091811</v>
+        <v>90.07944158091789</v>
       </c>
       <c r="M17" t="n">
-        <v>173.4380178380559</v>
+        <v>173.4380178380558</v>
       </c>
       <c r="N17" t="n">
-        <v>261.1443984539841</v>
+        <v>261.144398453984</v>
       </c>
       <c r="O17" t="n">
-        <v>335.2951267986176</v>
+        <v>335.2951267986174</v>
       </c>
       <c r="P17" t="n">
-        <v>376.1554073447102</v>
+        <v>376.15540734471</v>
       </c>
       <c r="Q17" t="n">
-        <v>375.5147418352147</v>
+        <v>376.15540734471</v>
       </c>
       <c r="R17" t="n">
-        <v>318.4988542744878</v>
+        <v>376.15540734471</v>
       </c>
       <c r="S17" t="n">
-        <v>223.5101150460256</v>
+        <v>376.15540734471</v>
       </c>
       <c r="T17" t="n">
-        <v>128.5213758175635</v>
+        <v>376.15540734471</v>
       </c>
       <c r="U17" t="n">
-        <v>33.53263658910129</v>
+        <v>376.15540734471</v>
       </c>
       <c r="V17" t="n">
-        <v>7.523108146894205</v>
+        <v>376.15540734471</v>
       </c>
       <c r="W17" t="n">
-        <v>7.523108146894205</v>
+        <v>376.15540734471</v>
       </c>
       <c r="X17" t="n">
-        <v>7.523108146894205</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.523108146894205</v>
+        <v>281.1666681162479</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>376.1554073447102</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="C18" t="n">
-        <v>376.1554073447102</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="D18" t="n">
-        <v>376.1554073447102</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="E18" t="n">
-        <v>334.6509962209412</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="F18" t="n">
-        <v>239.6622569924791</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="G18" t="n">
-        <v>144.6735177640169</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="H18" t="n">
-        <v>63.32977475497142</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="I18" t="n">
-        <v>22.77623309822825</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="J18" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="K18" t="n">
-        <v>32.77251759274197</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="L18" t="n">
-        <v>71.04324637581345</v>
+        <v>71.58370686834749</v>
       </c>
       <c r="M18" t="n">
-        <v>158.3809078524847</v>
+        <v>158.9213683450186</v>
       </c>
       <c r="N18" t="n">
-        <v>251.4793711703005</v>
+        <v>252.0198316628343</v>
       </c>
       <c r="O18" t="n">
-        <v>327.6157467215367</v>
+        <v>327.6157467215365</v>
       </c>
       <c r="P18" t="n">
-        <v>376.1554073447102</v>
+        <v>376.15540734471</v>
       </c>
       <c r="Q18" t="n">
-        <v>376.1554073447102</v>
+        <v>376.15540734471</v>
       </c>
       <c r="R18" t="n">
-        <v>376.1554073447102</v>
+        <v>325.2103365115306</v>
       </c>
       <c r="S18" t="n">
-        <v>376.1554073447102</v>
+        <v>230.2215972830684</v>
       </c>
       <c r="T18" t="n">
-        <v>376.1554073447102</v>
+        <v>230.2215972830684</v>
       </c>
       <c r="U18" t="n">
-        <v>376.1554073447102</v>
+        <v>135.2328580546063</v>
       </c>
       <c r="V18" t="n">
-        <v>376.1554073447102</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="W18" t="n">
-        <v>376.1554073447102</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="X18" t="n">
-        <v>376.1554073447102</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="Y18" t="n">
-        <v>376.1554073447102</v>
+        <v>102.5118473753563</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="C19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="D19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="E19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="F19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="G19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="H19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="I19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="J19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="K19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="L19" t="n">
-        <v>8.68120698349937</v>
+        <v>8.681206983499337</v>
       </c>
       <c r="M19" t="n">
-        <v>12.02014378847688</v>
+        <v>12.02014378847682</v>
       </c>
       <c r="N19" t="n">
-        <v>20.38707997798894</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="O19" t="n">
-        <v>14.80062145582472</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="P19" t="n">
-        <v>7.523108146894205</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.523108146894205</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="R19" t="n">
-        <v>7.523108146894205</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="S19" t="n">
-        <v>7.523108146894205</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="T19" t="n">
-        <v>7.523108146894205</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="U19" t="n">
-        <v>7.523108146894205</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="V19" t="n">
-        <v>7.523108146894205</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="W19" t="n">
-        <v>7.523108146894205</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="X19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.523108146894205</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="C20" t="n">
-        <v>7.523108146894205</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="D20" t="n">
-        <v>7.523108146894205</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="E20" t="n">
-        <v>7.523108146894205</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="F20" t="n">
-        <v>7.523108146894205</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="G20" t="n">
-        <v>7.523108146894205</v>
+        <v>91.18918965932363</v>
       </c>
       <c r="H20" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="I20" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="J20" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="K20" t="n">
-        <v>33.66364674177163</v>
+        <v>33.66364674177161</v>
       </c>
       <c r="L20" t="n">
-        <v>90.07944158091794</v>
+        <v>90.07944158091789</v>
       </c>
       <c r="M20" t="n">
-        <v>173.4380178380559</v>
+        <v>173.4380178380558</v>
       </c>
       <c r="N20" t="n">
-        <v>261.1443984539841</v>
+        <v>261.144398453984</v>
       </c>
       <c r="O20" t="n">
-        <v>335.2951267986176</v>
+        <v>335.2951267986174</v>
       </c>
       <c r="P20" t="n">
-        <v>376.1554073447102</v>
+        <v>376.15540734471</v>
       </c>
       <c r="Q20" t="n">
-        <v>375.5147418352147</v>
+        <v>376.15540734471</v>
       </c>
       <c r="R20" t="n">
-        <v>375.5147418352147</v>
+        <v>376.15540734471</v>
       </c>
       <c r="S20" t="n">
-        <v>375.5147418352147</v>
+        <v>376.15540734471</v>
       </c>
       <c r="T20" t="n">
-        <v>375.5147418352147</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="U20" t="n">
-        <v>280.5260026067526</v>
+        <v>281.1666681162479</v>
       </c>
       <c r="V20" t="n">
-        <v>185.5372633782904</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="W20" t="n">
-        <v>90.54852414982821</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="X20" t="n">
-        <v>7.523108146894205</v>
+        <v>186.1779288877858</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.523108146894205</v>
+        <v>186.1779288877858</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>319.3978712696072</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="C21" t="n">
-        <v>319.3978712696072</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="D21" t="n">
-        <v>319.3978712696072</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="E21" t="n">
-        <v>319.3978712696072</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="F21" t="n">
-        <v>224.409132041145</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="G21" t="n">
-        <v>129.4203928126828</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="H21" t="n">
-        <v>48.07664980363739</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="I21" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="J21" t="n">
-        <v>7.523108146894205</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="K21" t="n">
-        <v>32.77251759274194</v>
+        <v>32.77251759274192</v>
       </c>
       <c r="L21" t="n">
-        <v>96.83311631419525</v>
+        <v>96.83311631419521</v>
       </c>
       <c r="M21" t="n">
-        <v>184.1707777908664</v>
+        <v>184.1707777908663</v>
       </c>
       <c r="N21" t="n">
-        <v>277.2692411086822</v>
+        <v>277.2692411086821</v>
       </c>
       <c r="O21" t="n">
-        <v>327.6157467215367</v>
+        <v>353.4056166599182</v>
       </c>
       <c r="P21" t="n">
-        <v>376.1554073447102</v>
+        <v>376.15540734471</v>
       </c>
       <c r="Q21" t="n">
-        <v>376.1554073447102</v>
+        <v>376.15540734471</v>
       </c>
       <c r="R21" t="n">
-        <v>376.1554073447102</v>
+        <v>325.2103365115306</v>
       </c>
       <c r="S21" t="n">
-        <v>376.1554073447102</v>
+        <v>230.2215972830684</v>
       </c>
       <c r="T21" t="n">
-        <v>376.1554073447102</v>
+        <v>135.2328580546063</v>
       </c>
       <c r="U21" t="n">
-        <v>319.3978712696072</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="V21" t="n">
-        <v>319.3978712696072</v>
+        <v>102.5118473753563</v>
       </c>
       <c r="W21" t="n">
-        <v>319.3978712696072</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="X21" t="n">
-        <v>319.3978712696072</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="Y21" t="n">
-        <v>319.3978712696072</v>
+        <v>7.5231081468942</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="C22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="D22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="E22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="F22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="G22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="H22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="I22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="J22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="K22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="L22" t="n">
-        <v>364.4495343502207</v>
+        <v>8.681206983499337</v>
       </c>
       <c r="M22" t="n">
-        <v>367.7884711551982</v>
+        <v>12.02014378847682</v>
       </c>
       <c r="N22" t="n">
-        <v>376.1554073447102</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="O22" t="n">
-        <v>376.1554073447102</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="P22" t="n">
-        <v>376.1554073447102</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="Q22" t="n">
-        <v>376.1554073447102</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="R22" t="n">
-        <v>376.1554073447102</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="S22" t="n">
-        <v>376.1554073447102</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="T22" t="n">
-        <v>376.1554073447102</v>
+        <v>20.38707997798885</v>
       </c>
       <c r="U22" t="n">
-        <v>376.1554073447102</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="V22" t="n">
-        <v>376.1554073447102</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="W22" t="n">
-        <v>376.1554073447102</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="X22" t="n">
-        <v>376.1554073447102</v>
+        <v>7.5231081468942</v>
       </c>
       <c r="Y22" t="n">
-        <v>363.2914355136155</v>
+        <v>7.5231081468942</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.63599829661285</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="C23" t="n">
-        <v>7.63599829661285</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="D23" t="n">
-        <v>7.63599829661285</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="E23" t="n">
-        <v>7.63599829661285</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="F23" t="n">
-        <v>7.63599829661285</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="G23" t="n">
-        <v>7.63599829661285</v>
+        <v>11.78862123475801</v>
       </c>
       <c r="H23" t="n">
-        <v>7.63599829661285</v>
+        <v>11.78862123475801</v>
       </c>
       <c r="I23" t="n">
-        <v>7.63599829661285</v>
+        <v>11.78862123475801</v>
       </c>
       <c r="J23" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="K23" t="n">
-        <v>34.51618156468952</v>
+        <v>34.51618156468966</v>
       </c>
       <c r="L23" t="n">
-        <v>91.84957102479562</v>
+        <v>91.84957102479575</v>
       </c>
       <c r="M23" t="n">
-        <v>176.2291480993066</v>
+        <v>176.2291480993067</v>
       </c>
       <c r="N23" t="n">
-        <v>264.9730503932565</v>
+        <v>264.9730503932566</v>
       </c>
       <c r="O23" t="n">
-        <v>340.1034810377948</v>
+        <v>340.1034810377949</v>
       </c>
       <c r="P23" t="n">
         <v>381.7999148306425</v>
@@ -6013,28 +6013,28 @@
         <v>381.7999148306425</v>
       </c>
       <c r="R23" t="n">
-        <v>325.1566976157696</v>
+        <v>381.7999148306425</v>
       </c>
       <c r="S23" t="n">
-        <v>325.1566976157696</v>
+        <v>285.3857949239146</v>
       </c>
       <c r="T23" t="n">
-        <v>325.1566976157696</v>
+        <v>188.9716750171867</v>
       </c>
       <c r="U23" t="n">
-        <v>228.7425777090417</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="V23" t="n">
-        <v>132.3284578023138</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="W23" t="n">
-        <v>132.3284578023138</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="X23" t="n">
-        <v>132.3284578023138</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.91433789558587</v>
+        <v>108.2027411414859</v>
       </c>
     </row>
     <row r="24">
@@ -6047,28 +6047,28 @@
         <v>200.4642381100687</v>
       </c>
       <c r="C24" t="n">
-        <v>104.0501182033408</v>
+        <v>200.4642381100687</v>
       </c>
       <c r="D24" t="n">
         <v>104.0501182033408</v>
       </c>
       <c r="E24" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="F24" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="G24" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="H24" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="I24" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="J24" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="K24" t="n">
         <v>33.3877836930093</v>
@@ -6080,37 +6080,37 @@
         <v>186.2498345339106</v>
       </c>
       <c r="N24" t="n">
-        <v>255.7895811218219</v>
+        <v>280.7453134544946</v>
       </c>
       <c r="O24" t="n">
-        <v>332.666168754146</v>
+        <v>357.6219010868188</v>
       </c>
       <c r="P24" t="n">
-        <v>381.7999148306425</v>
+        <v>381.4027844380312</v>
       </c>
       <c r="Q24" t="n">
         <v>381.7999148306425</v>
       </c>
       <c r="R24" t="n">
-        <v>381.7999148306425</v>
+        <v>331.0519276526145</v>
       </c>
       <c r="S24" t="n">
-        <v>381.7999148306425</v>
+        <v>234.6378077458866</v>
       </c>
       <c r="T24" t="n">
-        <v>381.7999148306425</v>
+        <v>234.6378077458866</v>
       </c>
       <c r="U24" t="n">
-        <v>381.7999148306425</v>
+        <v>234.6378077458866</v>
       </c>
       <c r="V24" t="n">
-        <v>381.7999148306425</v>
+        <v>234.6378077458866</v>
       </c>
       <c r="W24" t="n">
-        <v>381.7999148306425</v>
+        <v>200.4642381100687</v>
       </c>
       <c r="X24" t="n">
-        <v>285.3857949239145</v>
+        <v>200.4642381100687</v>
       </c>
       <c r="Y24" t="n">
         <v>200.4642381100687</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="C25" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="D25" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="E25" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="F25" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="G25" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="H25" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="I25" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="J25" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="K25" t="n">
-        <v>7.63599829661285</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="L25" t="n">
         <v>9.181872723031073</v>
@@ -6183,16 +6183,16 @@
         <v>21.69573403832714</v>
       </c>
       <c r="V25" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="W25" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="X25" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612851</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612851</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>285.3857949239146</v>
+        <v>381.7999148306425</v>
       </c>
       <c r="C26" t="n">
-        <v>285.3857949239146</v>
+        <v>381.7999148306425</v>
       </c>
       <c r="D26" t="n">
-        <v>285.3857949239146</v>
+        <v>296.8783580167966</v>
       </c>
       <c r="E26" t="n">
         <v>200.4642381100687</v>
@@ -6217,7 +6217,7 @@
         <v>104.0501182033408</v>
       </c>
       <c r="G26" t="n">
-        <v>7.635998296612851</v>
+        <v>104.0501182033408</v>
       </c>
       <c r="H26" t="n">
         <v>7.635998296612851</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.635998296612851</v>
+        <v>215.4174634417633</v>
       </c>
       <c r="C27" t="n">
-        <v>7.635998296612851</v>
+        <v>215.4174634417633</v>
       </c>
       <c r="D27" t="n">
-        <v>7.635998296612851</v>
+        <v>215.4174634417633</v>
       </c>
       <c r="E27" t="n">
-        <v>7.635998296612851</v>
+        <v>215.4174634417633</v>
       </c>
       <c r="F27" t="n">
-        <v>7.635998296612851</v>
+        <v>119.0033435350354</v>
       </c>
       <c r="G27" t="n">
-        <v>7.635998296612851</v>
+        <v>22.58922362830746</v>
       </c>
       <c r="H27" t="n">
-        <v>7.635998296612851</v>
+        <v>22.58922362830746</v>
       </c>
       <c r="I27" t="n">
-        <v>7.635998296612851</v>
+        <v>22.58922362830746</v>
       </c>
       <c r="J27" t="n">
         <v>7.635998296612851</v>
@@ -6329,28 +6329,28 @@
         <v>381.7999148306425</v>
       </c>
       <c r="R27" t="n">
-        <v>381.7999148306425</v>
+        <v>331.0519276526145</v>
       </c>
       <c r="S27" t="n">
-        <v>381.7999148306425</v>
+        <v>331.0519276526145</v>
       </c>
       <c r="T27" t="n">
-        <v>285.3857949239146</v>
+        <v>234.6378077458866</v>
       </c>
       <c r="U27" t="n">
-        <v>285.3857949239146</v>
+        <v>234.6378077458866</v>
       </c>
       <c r="V27" t="n">
-        <v>188.9716750171867</v>
+        <v>234.6378077458866</v>
       </c>
       <c r="W27" t="n">
-        <v>92.55755511045875</v>
+        <v>215.4174634417633</v>
       </c>
       <c r="X27" t="n">
-        <v>92.55755511045875</v>
+        <v>215.4174634417633</v>
       </c>
       <c r="Y27" t="n">
-        <v>92.55755511045875</v>
+        <v>215.4174634417633</v>
       </c>
     </row>
     <row r="28">
@@ -6417,19 +6417,19 @@
         <v>21.69573403832714</v>
       </c>
       <c r="U28" t="n">
-        <v>7.635998296612851</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="V28" t="n">
-        <v>7.635998296612851</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="W28" t="n">
-        <v>7.635998296612851</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="X28" t="n">
-        <v>7.635998296612851</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.635998296612851</v>
+        <v>21.69573403832714</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>285.3857949239148</v>
+        <v>285.3857949239144</v>
       </c>
       <c r="C29" t="n">
-        <v>200.4642381100688</v>
+        <v>204.6168610482137</v>
       </c>
       <c r="D29" t="n">
-        <v>104.0501182033408</v>
+        <v>204.6168610482137</v>
       </c>
       <c r="E29" t="n">
-        <v>7.635998296612854</v>
+        <v>204.6168610482137</v>
       </c>
       <c r="F29" t="n">
-        <v>7.635998296612854</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="G29" t="n">
-        <v>7.635998296612854</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="H29" t="n">
-        <v>7.635998296612854</v>
+        <v>11.78862123475801</v>
       </c>
       <c r="I29" t="n">
-        <v>7.635998296612854</v>
+        <v>11.78862123475801</v>
       </c>
       <c r="J29" t="n">
-        <v>7.635998296612854</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="K29" t="n">
-        <v>34.51618156468963</v>
+        <v>34.51618156468959</v>
       </c>
       <c r="L29" t="n">
-        <v>91.84957102479586</v>
+        <v>91.84957102479572</v>
       </c>
       <c r="M29" t="n">
-        <v>176.2291480993069</v>
+        <v>176.2291480993067</v>
       </c>
       <c r="N29" t="n">
-        <v>264.9730503932568</v>
+        <v>264.9730503932565</v>
       </c>
       <c r="O29" t="n">
-        <v>340.1034810377952</v>
+        <v>340.1034810377947</v>
       </c>
       <c r="P29" t="n">
-        <v>381.7999148306427</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="Q29" t="n">
-        <v>381.7999148306427</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="R29" t="n">
-        <v>381.7999148306427</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="S29" t="n">
-        <v>381.7999148306427</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="T29" t="n">
-        <v>381.7999148306427</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="U29" t="n">
-        <v>381.7999148306427</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="V29" t="n">
-        <v>381.7999148306427</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="W29" t="n">
-        <v>285.3857949239148</v>
+        <v>285.3857949239144</v>
       </c>
       <c r="X29" t="n">
-        <v>285.3857949239148</v>
+        <v>285.3857949239144</v>
       </c>
       <c r="Y29" t="n">
-        <v>285.3857949239148</v>
+        <v>285.3857949239144</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.635998296612854</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="C30" t="n">
-        <v>7.635998296612854</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="D30" t="n">
-        <v>7.635998296612854</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="E30" t="n">
-        <v>7.635998296612854</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="F30" t="n">
-        <v>7.635998296612854</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="G30" t="n">
-        <v>7.635998296612854</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="H30" t="n">
-        <v>7.635998296612854</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="I30" t="n">
-        <v>7.635998296612854</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="J30" t="n">
-        <v>7.635998296612854</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="K30" t="n">
-        <v>33.38778369300931</v>
+        <v>33.3877836930093</v>
       </c>
       <c r="L30" t="n">
-        <v>98.12388887701836</v>
+        <v>98.12388887701835</v>
       </c>
       <c r="M30" t="n">
-        <v>160.8969718086267</v>
+        <v>186.2498345339106</v>
       </c>
       <c r="N30" t="n">
-        <v>255.3924507292108</v>
+        <v>280.7453134544946</v>
       </c>
       <c r="O30" t="n">
-        <v>332.269038361535</v>
+        <v>357.6219010868188</v>
       </c>
       <c r="P30" t="n">
-        <v>381.4027844380314</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="Q30" t="n">
-        <v>381.7999148306427</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="R30" t="n">
-        <v>381.7999148306427</v>
+        <v>331.0519276526143</v>
       </c>
       <c r="S30" t="n">
-        <v>381.7999148306427</v>
+        <v>234.6378077458864</v>
       </c>
       <c r="T30" t="n">
-        <v>296.8783580167967</v>
+        <v>234.6378077458864</v>
       </c>
       <c r="U30" t="n">
-        <v>200.4642381100688</v>
+        <v>138.2236878391585</v>
       </c>
       <c r="V30" t="n">
-        <v>200.4642381100688</v>
+        <v>138.2236878391585</v>
       </c>
       <c r="W30" t="n">
-        <v>200.4642381100688</v>
+        <v>138.2236878391585</v>
       </c>
       <c r="X30" t="n">
-        <v>200.4642381100688</v>
+        <v>41.80956793243065</v>
       </c>
       <c r="Y30" t="n">
-        <v>104.0501182033408</v>
+        <v>22.58922362830745</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="C31" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="D31" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="E31" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="F31" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="G31" t="n">
-        <v>7.635998296612854</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="H31" t="n">
-        <v>7.635998296612854</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="I31" t="n">
-        <v>7.635998296612854</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="J31" t="n">
-        <v>7.635998296612854</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="K31" t="n">
-        <v>7.635998296612854</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="L31" t="n">
-        <v>9.181872723031077</v>
+        <v>9.18187272303107</v>
       </c>
       <c r="M31" t="n">
-        <v>12.9296645173168</v>
+        <v>12.92966451731679</v>
       </c>
       <c r="N31" t="n">
-        <v>21.69573403832715</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="O31" t="n">
-        <v>21.69573403832715</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="P31" t="n">
-        <v>21.69573403832715</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.69573403832715</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="R31" t="n">
-        <v>21.69573403832715</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="S31" t="n">
-        <v>21.69573403832715</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="T31" t="n">
-        <v>21.69573403832715</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="U31" t="n">
-        <v>21.69573403832715</v>
+        <v>21.69573403832714</v>
       </c>
       <c r="V31" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="W31" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="X31" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612846</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>296.8783580167966</v>
+        <v>200.4642381100685</v>
       </c>
       <c r="C32" t="n">
-        <v>296.8783580167966</v>
+        <v>200.4642381100685</v>
       </c>
       <c r="D32" t="n">
-        <v>296.8783580167966</v>
+        <v>200.4642381100685</v>
       </c>
       <c r="E32" t="n">
-        <v>200.4642381100687</v>
+        <v>104.0501182033407</v>
       </c>
       <c r="F32" t="n">
-        <v>104.0501182033408</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="G32" t="n">
-        <v>7.635998296612851</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="H32" t="n">
-        <v>7.635998296612851</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="I32" t="n">
-        <v>7.635998296612851</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="J32" t="n">
-        <v>7.635998296612851</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="K32" t="n">
-        <v>34.51618156468965</v>
+        <v>34.5161815646896</v>
       </c>
       <c r="L32" t="n">
-        <v>91.84957102479578</v>
+        <v>91.84957102479568</v>
       </c>
       <c r="M32" t="n">
-        <v>176.2291480993068</v>
+        <v>176.2291480993065</v>
       </c>
       <c r="N32" t="n">
-        <v>264.9730503932565</v>
+        <v>264.9730503932562</v>
       </c>
       <c r="O32" t="n">
-        <v>340.1034810377948</v>
+        <v>340.1034810377946</v>
       </c>
       <c r="P32" t="n">
-        <v>381.7999148306425</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="Q32" t="n">
-        <v>381.7999148306425</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="R32" t="n">
-        <v>381.7999148306425</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="S32" t="n">
-        <v>381.7999148306425</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="T32" t="n">
-        <v>381.7999148306425</v>
+        <v>296.8783580167964</v>
       </c>
       <c r="U32" t="n">
-        <v>381.7999148306425</v>
+        <v>200.4642381100685</v>
       </c>
       <c r="V32" t="n">
-        <v>381.7999148306425</v>
+        <v>200.4642381100685</v>
       </c>
       <c r="W32" t="n">
-        <v>296.8783580167966</v>
+        <v>200.4642381100685</v>
       </c>
       <c r="X32" t="n">
-        <v>296.8783580167966</v>
+        <v>200.4642381100685</v>
       </c>
       <c r="Y32" t="n">
-        <v>296.8783580167966</v>
+        <v>200.4642381100685</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.635998296612851</v>
+        <v>311.8315833484911</v>
       </c>
       <c r="C33" t="n">
-        <v>7.635998296612851</v>
+        <v>215.4174634417632</v>
       </c>
       <c r="D33" t="n">
-        <v>7.635998296612851</v>
+        <v>119.0033435350353</v>
       </c>
       <c r="E33" t="n">
-        <v>7.635998296612851</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="F33" t="n">
-        <v>7.635998296612851</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="G33" t="n">
-        <v>7.635998296612851</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="H33" t="n">
-        <v>7.635998296612851</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="I33" t="n">
-        <v>7.635998296612851</v>
+        <v>22.58922362830745</v>
       </c>
       <c r="J33" t="n">
-        <v>7.635998296612851</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="K33" t="n">
-        <v>33.3877836930093</v>
+        <v>33.38778369300928</v>
       </c>
       <c r="L33" t="n">
-        <v>98.12388887701835</v>
+        <v>98.1238888770183</v>
       </c>
       <c r="M33" t="n">
-        <v>186.2498345339106</v>
+        <v>186.2498345339105</v>
       </c>
       <c r="N33" t="n">
-        <v>255.3924507292106</v>
+        <v>280.7453134544945</v>
       </c>
       <c r="O33" t="n">
-        <v>332.2690383615348</v>
+        <v>357.6219010868186</v>
       </c>
       <c r="P33" t="n">
-        <v>381.4027844380312</v>
+        <v>381.402784438031</v>
       </c>
       <c r="Q33" t="n">
-        <v>381.7999148306425</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="R33" t="n">
-        <v>381.7999148306425</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="S33" t="n">
-        <v>381.7999148306425</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="T33" t="n">
-        <v>381.7999148306425</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="U33" t="n">
-        <v>285.3857949239146</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="V33" t="n">
-        <v>188.9716750171867</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="W33" t="n">
-        <v>92.55755511045875</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="X33" t="n">
-        <v>92.55755511045875</v>
+        <v>381.7999148306423</v>
       </c>
       <c r="Y33" t="n">
-        <v>92.55755511045875</v>
+        <v>381.7999148306423</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>367.7401790889282</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="C34" t="n">
-        <v>367.7401790889282</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="D34" t="n">
-        <v>367.7401790889282</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="E34" t="n">
-        <v>367.7401790889282</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="F34" t="n">
-        <v>367.7401790889282</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="G34" t="n">
-        <v>367.7401790889282</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="H34" t="n">
-        <v>367.7401790889282</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="I34" t="n">
-        <v>367.7401790889282</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="J34" t="n">
-        <v>367.7401790889282</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="K34" t="n">
-        <v>367.7401790889282</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="L34" t="n">
-        <v>369.2860535153465</v>
+        <v>9.181872723031056</v>
       </c>
       <c r="M34" t="n">
-        <v>373.0338453096322</v>
+        <v>12.92966451731676</v>
       </c>
       <c r="N34" t="n">
-        <v>381.7999148306425</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="O34" t="n">
-        <v>381.7999148306425</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="P34" t="n">
-        <v>381.7999148306425</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="Q34" t="n">
-        <v>381.7999148306425</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="R34" t="n">
-        <v>381.7999148306425</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="S34" t="n">
-        <v>381.7999148306425</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="T34" t="n">
-        <v>381.7999148306425</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="U34" t="n">
-        <v>381.7999148306425</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="V34" t="n">
-        <v>381.7999148306425</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="W34" t="n">
-        <v>381.7999148306425</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="X34" t="n">
-        <v>381.7999148306425</v>
+        <v>7.635998296612846</v>
       </c>
       <c r="Y34" t="n">
-        <v>381.7999148306425</v>
+        <v>7.635998296612846</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.3284578023139</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="C35" t="n">
-        <v>132.3284578023139</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="D35" t="n">
-        <v>104.0501182033408</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="E35" t="n">
-        <v>7.635998296612853</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="F35" t="n">
-        <v>7.635998296612853</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="G35" t="n">
-        <v>7.635998296612853</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="H35" t="n">
-        <v>7.635998296612853</v>
+        <v>11.78862123475803</v>
       </c>
       <c r="I35" t="n">
-        <v>7.635998296612853</v>
+        <v>11.78862123475803</v>
       </c>
       <c r="J35" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="K35" t="n">
-        <v>34.51618156468965</v>
+        <v>34.51618156468962</v>
       </c>
       <c r="L35" t="n">
-        <v>91.84957102479575</v>
+        <v>91.84957102479569</v>
       </c>
       <c r="M35" t="n">
         <v>176.2291480993067</v>
       </c>
       <c r="N35" t="n">
-        <v>264.9730503932566</v>
+        <v>264.9730503932565</v>
       </c>
       <c r="O35" t="n">
-        <v>340.1034810377949</v>
+        <v>340.1034810377948</v>
       </c>
       <c r="P35" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="Q35" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="R35" t="n">
-        <v>325.1566976157698</v>
+        <v>325.1566976157695</v>
       </c>
       <c r="S35" t="n">
-        <v>325.1566976157698</v>
+        <v>228.7425777090417</v>
       </c>
       <c r="T35" t="n">
-        <v>325.1566976157698</v>
+        <v>228.7425777090417</v>
       </c>
       <c r="U35" t="n">
-        <v>325.1566976157698</v>
+        <v>228.7425777090417</v>
       </c>
       <c r="V35" t="n">
-        <v>325.1566976157698</v>
+        <v>228.7425777090417</v>
       </c>
       <c r="W35" t="n">
-        <v>325.1566976157698</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="X35" t="n">
-        <v>325.1566976157698</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="Y35" t="n">
-        <v>228.7425777090418</v>
+        <v>204.6168610482138</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="C36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="D36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="E36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="F36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="G36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="H36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="I36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="J36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="K36" t="n">
         <v>8.432051360336715</v>
       </c>
       <c r="L36" t="n">
-        <v>73.16815654434576</v>
+        <v>73.16815654434573</v>
       </c>
       <c r="M36" t="n">
-        <v>161.294102201238</v>
+        <v>161.2941022012379</v>
       </c>
       <c r="N36" t="n">
-        <v>255.789581121822</v>
+        <v>255.7895811218219</v>
       </c>
       <c r="O36" t="n">
-        <v>332.6661687541462</v>
+        <v>332.666168754146</v>
       </c>
       <c r="P36" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="Q36" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="R36" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="S36" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="T36" t="n">
-        <v>296.8783580167967</v>
+        <v>285.3857949239145</v>
       </c>
       <c r="U36" t="n">
-        <v>200.4642381100687</v>
+        <v>188.9716750171867</v>
       </c>
       <c r="V36" t="n">
-        <v>104.0501182033408</v>
+        <v>92.55755511045878</v>
       </c>
       <c r="W36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="X36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="C37" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="D37" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="E37" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="F37" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="G37" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="H37" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="I37" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="J37" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="K37" t="n">
-        <v>7.635998296612853</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="L37" t="n">
-        <v>9.181872723031077</v>
+        <v>9.181872723031058</v>
       </c>
       <c r="M37" t="n">
-        <v>12.9296645173168</v>
+        <v>12.92966451731676</v>
       </c>
       <c r="N37" t="n">
-        <v>21.69573403832715</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="O37" t="n">
-        <v>21.69573403832715</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="P37" t="n">
-        <v>21.69573403832715</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.69573403832715</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="R37" t="n">
-        <v>21.69573403832715</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="S37" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="T37" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="U37" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="V37" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="W37" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="X37" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.69573403832715</v>
+        <v>7.635998296612849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,73 +7150,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>92.55755511045879</v>
+        <v>188.9716750171867</v>
       </c>
       <c r="C38" t="n">
-        <v>7.635998296612852</v>
+        <v>188.9716750171867</v>
       </c>
       <c r="D38" t="n">
-        <v>7.635998296612852</v>
+        <v>92.55755511045878</v>
       </c>
       <c r="E38" t="n">
-        <v>7.635998296612852</v>
+        <v>92.55755511045878</v>
       </c>
       <c r="F38" t="n">
-        <v>7.635998296612852</v>
+        <v>92.55755511045878</v>
       </c>
       <c r="G38" t="n">
-        <v>7.635998296612852</v>
+        <v>92.55755511045878</v>
       </c>
       <c r="H38" t="n">
-        <v>7.635998296612852</v>
+        <v>11.78862123475803</v>
       </c>
       <c r="I38" t="n">
-        <v>7.635998296612852</v>
+        <v>11.78862123475803</v>
       </c>
       <c r="J38" t="n">
-        <v>7.635998296612852</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="K38" t="n">
-        <v>34.51618156468966</v>
+        <v>34.51618156468963</v>
       </c>
       <c r="L38" t="n">
-        <v>91.84957102479576</v>
+        <v>91.84957102479571</v>
       </c>
       <c r="M38" t="n">
-        <v>176.2291480993068</v>
+        <v>176.2291480993067</v>
       </c>
       <c r="N38" t="n">
-        <v>264.9730503932566</v>
+        <v>264.9730503932565</v>
       </c>
       <c r="O38" t="n">
-        <v>340.1034810377949</v>
+        <v>340.1034810377948</v>
       </c>
       <c r="P38" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="Q38" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="R38" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="S38" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="T38" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="U38" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="V38" t="n">
-        <v>381.7999148306426</v>
+        <v>285.3857949239145</v>
       </c>
       <c r="W38" t="n">
-        <v>381.7999148306426</v>
+        <v>188.9716750171867</v>
       </c>
       <c r="X38" t="n">
-        <v>285.3857949239147</v>
+        <v>188.9716750171867</v>
       </c>
       <c r="Y38" t="n">
         <v>188.9716750171867</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22.58922362830746</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="C39" t="n">
-        <v>22.58922362830746</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="D39" t="n">
-        <v>22.58922362830746</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="E39" t="n">
-        <v>22.58922362830746</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="F39" t="n">
-        <v>22.58922362830746</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="G39" t="n">
-        <v>22.58922362830746</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="H39" t="n">
-        <v>22.58922362830746</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="I39" t="n">
-        <v>22.58922362830746</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="J39" t="n">
-        <v>7.635998296612852</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="K39" t="n">
-        <v>33.3877836930093</v>
+        <v>8.034920967725412</v>
       </c>
       <c r="L39" t="n">
-        <v>98.12388887701835</v>
+        <v>72.77102615173443</v>
       </c>
       <c r="M39" t="n">
-        <v>186.2498345339106</v>
+        <v>160.8969718086266</v>
       </c>
       <c r="N39" t="n">
-        <v>255.789581121822</v>
+        <v>255.3924507292106</v>
       </c>
       <c r="O39" t="n">
-        <v>332.6661687541462</v>
+        <v>332.2690383615347</v>
       </c>
       <c r="P39" t="n">
-        <v>381.7999148306426</v>
+        <v>381.4027844380311</v>
       </c>
       <c r="Q39" t="n">
-        <v>381.7999148306426</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="R39" t="n">
-        <v>331.0519276526146</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="S39" t="n">
-        <v>311.8315833484913</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="T39" t="n">
-        <v>311.8315833484913</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="U39" t="n">
-        <v>215.4174634417633</v>
+        <v>296.8783580167965</v>
       </c>
       <c r="V39" t="n">
-        <v>119.0033435350354</v>
+        <v>200.4642381100686</v>
       </c>
       <c r="W39" t="n">
-        <v>22.58922362830746</v>
+        <v>104.0501182033407</v>
       </c>
       <c r="X39" t="n">
-        <v>22.58922362830746</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="Y39" t="n">
-        <v>22.58922362830746</v>
+        <v>7.635998296612849</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="C40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="D40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="E40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="F40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="G40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="H40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="I40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="J40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="K40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="L40" t="n">
-        <v>369.2860535153465</v>
+        <v>9.181872723031058</v>
       </c>
       <c r="M40" t="n">
-        <v>373.0338453096322</v>
+        <v>12.92966451731676</v>
       </c>
       <c r="N40" t="n">
-        <v>381.7999148306426</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="O40" t="n">
-        <v>381.7999148306426</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="P40" t="n">
-        <v>381.7999148306426</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="Q40" t="n">
-        <v>381.7999148306426</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="R40" t="n">
-        <v>381.7999148306426</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="S40" t="n">
-        <v>381.7999148306426</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="T40" t="n">
-        <v>381.7999148306426</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="U40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="V40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="W40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="X40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
       <c r="Y40" t="n">
-        <v>367.7401790889283</v>
+        <v>7.635998296612849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>228.7425777090416</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="C41" t="n">
-        <v>228.7425777090416</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="D41" t="n">
-        <v>228.7425777090416</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="E41" t="n">
-        <v>200.4642381100686</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="F41" t="n">
-        <v>104.0501182033407</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="G41" t="n">
-        <v>7.635998296612847</v>
+        <v>108.2027411414859</v>
       </c>
       <c r="H41" t="n">
-        <v>7.635998296612847</v>
+        <v>11.78862123475802</v>
       </c>
       <c r="I41" t="n">
-        <v>7.635998296612847</v>
+        <v>11.78862123475802</v>
       </c>
       <c r="J41" t="n">
         <v>7.635998296612847</v>
       </c>
       <c r="K41" t="n">
-        <v>34.51618156468953</v>
+        <v>34.51618156468963</v>
       </c>
       <c r="L41" t="n">
-        <v>91.84957102479552</v>
+        <v>91.84957102479571</v>
       </c>
       <c r="M41" t="n">
-        <v>176.2291480993066</v>
+        <v>176.2291480993067</v>
       </c>
       <c r="N41" t="n">
         <v>264.9730503932565</v>
@@ -7453,10 +7453,10 @@
         <v>228.7425777090416</v>
       </c>
       <c r="X41" t="n">
-        <v>228.7425777090416</v>
+        <v>204.6168610482138</v>
       </c>
       <c r="Y41" t="n">
-        <v>228.7425777090416</v>
+        <v>204.6168610482138</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.635998296612847</v>
+        <v>225.807456210357</v>
       </c>
       <c r="C42" t="n">
-        <v>7.635998296612847</v>
+        <v>225.807456210357</v>
       </c>
       <c r="D42" t="n">
-        <v>7.635998296612847</v>
+        <v>225.807456210357</v>
       </c>
       <c r="E42" t="n">
-        <v>7.635998296612847</v>
+        <v>225.807456210357</v>
       </c>
       <c r="F42" t="n">
-        <v>7.635998296612847</v>
+        <v>225.807456210357</v>
       </c>
       <c r="G42" t="n">
-        <v>7.635998296612847</v>
+        <v>129.3933363036292</v>
       </c>
       <c r="H42" t="n">
-        <v>7.635998296612847</v>
+        <v>48.0802501332841</v>
       </c>
       <c r="I42" t="n">
         <v>7.635998296612847</v>
@@ -7493,22 +7493,22 @@
         <v>7.635998296612847</v>
       </c>
       <c r="K42" t="n">
-        <v>33.3877836930093</v>
+        <v>33.38778369300928</v>
       </c>
       <c r="L42" t="n">
-        <v>98.12388887701835</v>
+        <v>73.16815654434562</v>
       </c>
       <c r="M42" t="n">
-        <v>186.2498345339106</v>
+        <v>161.2941022012378</v>
       </c>
       <c r="N42" t="n">
-        <v>255.3924507292105</v>
+        <v>255.7895811218218</v>
       </c>
       <c r="O42" t="n">
-        <v>332.2690383615346</v>
+        <v>332.6661687541459</v>
       </c>
       <c r="P42" t="n">
-        <v>381.4027844380311</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="Q42" t="n">
         <v>381.7999148306424</v>
@@ -7526,16 +7526,16 @@
         <v>381.7999148306424</v>
       </c>
       <c r="V42" t="n">
-        <v>381.7999148306424</v>
+        <v>322.2215761170849</v>
       </c>
       <c r="W42" t="n">
-        <v>285.3857949239145</v>
+        <v>225.807456210357</v>
       </c>
       <c r="X42" t="n">
-        <v>188.9716750171866</v>
+        <v>225.807456210357</v>
       </c>
       <c r="Y42" t="n">
-        <v>104.0501182033407</v>
+        <v>225.807456210357</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="C43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="D43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="E43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="F43" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="G43" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="H43" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="I43" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="J43" t="n">
-        <v>21.69573403832714</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="K43" t="n">
         <v>7.635998296612847</v>
       </c>
       <c r="L43" t="n">
-        <v>9.18187272303107</v>
+        <v>9.181872723031056</v>
       </c>
       <c r="M43" t="n">
-        <v>12.92966451731679</v>
+        <v>12.92966451731676</v>
       </c>
       <c r="N43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="O43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="P43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="R43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="S43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="T43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="U43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="V43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="W43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="X43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.69573403832714</v>
+        <v>21.6957340383271</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>105.1234689492494</v>
+        <v>132.3284578023137</v>
       </c>
       <c r="C44" t="n">
-        <v>105.1234689492494</v>
+        <v>93.86531103800542</v>
       </c>
       <c r="D44" t="n">
-        <v>8.672686188313078</v>
+        <v>93.86531103800542</v>
       </c>
       <c r="E44" t="n">
-        <v>8.672686188313078</v>
+        <v>93.86531103800542</v>
       </c>
       <c r="F44" t="n">
-        <v>8.672686188313078</v>
+        <v>93.86531103800542</v>
       </c>
       <c r="G44" t="n">
-        <v>8.672686188313078</v>
+        <v>93.86531103800542</v>
       </c>
       <c r="H44" t="n">
-        <v>8.672686188313078</v>
+        <v>93.86531103800542</v>
       </c>
       <c r="I44" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="J44" t="n">
-        <v>8.672686188313081</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="K44" t="n">
-        <v>41.65272304819793</v>
+        <v>34.51618156468963</v>
       </c>
       <c r="L44" t="n">
-        <v>106.5535202748932</v>
+        <v>91.84957102479571</v>
       </c>
       <c r="M44" t="n">
-        <v>199.3532965731109</v>
+        <v>176.2291480993067</v>
       </c>
       <c r="N44" t="n">
-        <v>296.6536457172543</v>
+        <v>264.9730503932565</v>
       </c>
       <c r="O44" t="n">
-        <v>379.8636864901637</v>
+        <v>340.1034810377948</v>
       </c>
       <c r="P44" t="n">
-        <v>428.4558805991891</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="Q44" t="n">
-        <v>433.6343094156539</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="R44" t="n">
-        <v>433.6343094156539</v>
+        <v>325.1566976157695</v>
       </c>
       <c r="S44" t="n">
-        <v>324.1306959268524</v>
+        <v>228.7425777090416</v>
       </c>
       <c r="T44" t="n">
-        <v>324.1306959268524</v>
+        <v>228.7425777090416</v>
       </c>
       <c r="U44" t="n">
-        <v>324.1306959268524</v>
+        <v>228.7425777090416</v>
       </c>
       <c r="V44" t="n">
-        <v>214.6270824380509</v>
+        <v>228.7425777090416</v>
       </c>
       <c r="W44" t="n">
-        <v>105.1234689492494</v>
+        <v>228.7425777090416</v>
       </c>
       <c r="X44" t="n">
-        <v>105.1234689492494</v>
+        <v>228.7425777090416</v>
       </c>
       <c r="Y44" t="n">
-        <v>105.1234689492494</v>
+        <v>228.7425777090416</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>118.1762996771146</v>
+        <v>188.9716750171866</v>
       </c>
       <c r="C45" t="n">
-        <v>8.672686188313078</v>
+        <v>188.9716750171866</v>
       </c>
       <c r="D45" t="n">
-        <v>8.672686188313078</v>
+        <v>188.9716750171866</v>
       </c>
       <c r="E45" t="n">
-        <v>8.672686188313078</v>
+        <v>92.55755511045874</v>
       </c>
       <c r="F45" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="G45" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="H45" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="I45" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="J45" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="K45" t="n">
-        <v>21.51676779685442</v>
+        <v>8.034920967725299</v>
       </c>
       <c r="L45" t="n">
-        <v>91.82377840506776</v>
+        <v>72.77102615173432</v>
       </c>
       <c r="M45" t="n">
-        <v>186.450707929373</v>
+        <v>160.8969718086265</v>
       </c>
       <c r="N45" t="n">
-        <v>292.9477499022058</v>
+        <v>255.3924507292105</v>
       </c>
       <c r="O45" t="n">
-        <v>375.9288705422426</v>
+        <v>332.2690383615346</v>
       </c>
       <c r="P45" t="n">
-        <v>429.962042542565</v>
+        <v>381.4027844380311</v>
       </c>
       <c r="Q45" t="n">
-        <v>433.6343094156539</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="R45" t="n">
-        <v>433.6343094156539</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="S45" t="n">
-        <v>433.6343094156539</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="T45" t="n">
-        <v>433.6343094156539</v>
+        <v>381.7999148306424</v>
       </c>
       <c r="U45" t="n">
-        <v>324.1306959268524</v>
+        <v>285.3857949239145</v>
       </c>
       <c r="V45" t="n">
-        <v>227.679913165916</v>
+        <v>285.3857949239145</v>
       </c>
       <c r="W45" t="n">
-        <v>227.679913165916</v>
+        <v>285.3857949239145</v>
       </c>
       <c r="X45" t="n">
-        <v>118.1762996771146</v>
+        <v>188.9716750171866</v>
       </c>
       <c r="Y45" t="n">
-        <v>118.1762996771146</v>
+        <v>188.9716750171866</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.59389332222591</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="C46" t="n">
-        <v>32.59389332222591</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="D46" t="n">
-        <v>32.59389332222591</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="E46" t="n">
-        <v>32.59389332222591</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="F46" t="n">
-        <v>32.59389332222591</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="G46" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="H46" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="I46" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="J46" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="K46" t="n">
-        <v>8.672686188313078</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="L46" t="n">
-        <v>13.41654798629614</v>
+        <v>9.181872723031056</v>
       </c>
       <c r="M46" t="n">
-        <v>20.53616907298082</v>
+        <v>12.92966451731676</v>
       </c>
       <c r="N46" t="n">
-        <v>32.59389332222591</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="O46" t="n">
-        <v>32.59389332222591</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="P46" t="n">
-        <v>32.59389332222591</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.59389332222591</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="R46" t="n">
-        <v>32.59389332222591</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="S46" t="n">
-        <v>32.59389332222591</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="T46" t="n">
-        <v>32.59389332222591</v>
+        <v>21.6957340383271</v>
       </c>
       <c r="U46" t="n">
-        <v>32.59389332222591</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="V46" t="n">
-        <v>32.59389332222591</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="W46" t="n">
-        <v>32.59389332222591</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="X46" t="n">
-        <v>32.59389332222591</v>
+        <v>7.635998296612847</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.59389332222591</v>
+        <v>7.635998296612847</v>
       </c>
     </row>
   </sheetData>
@@ -22561,49 +22561,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H2" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I2" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J2" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K2" t="n">
-        <v>36.75248193446048</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L2" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M2" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P2" t="n">
-        <v>30.1247672499621</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q2" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R2" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S2" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T2" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -22640,19 +22640,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H3" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I3" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J3" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K3" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.91032407045576</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R3" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S3" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T3" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -22719,49 +22719,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I4" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J4" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K4" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L4" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M4" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O4" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P4" t="n">
-        <v>44.18408838467262</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R4" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S4" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T4" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22825,10 +22825,10 @@
         <v>5.955249939359391</v>
       </c>
       <c r="P5" t="n">
-        <v>27.73484032479854</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q5" t="n">
-        <v>52.45628103597114</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R5" t="n">
         <v>86.59021226200232</v>
@@ -22977,7 +22977,7 @@
         <v>30.37019922731282</v>
       </c>
       <c r="N7" t="n">
-        <v>24.48908211499989</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O7" t="n">
         <v>35.95650756807426</v>
@@ -23263,7 +23263,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>328.5341807285021</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23281,7 +23281,7 @@
         <v>90.85590430800323</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>16.19493633782723</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>15.3748212697451</v>
       </c>
       <c r="R11" t="n">
-        <v>4.787986801539986</v>
+        <v>65.02020383945649</v>
       </c>
       <c r="S11" t="n">
-        <v>77.36882391920736</v>
+        <v>137.6010409571238</v>
       </c>
       <c r="T11" t="n">
-        <v>155.7991325496033</v>
+        <v>216.0313495875199</v>
       </c>
       <c r="U11" t="n">
-        <v>231.6167658296164</v>
+        <v>253.0995449890409</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>278.4535241656003</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>307.0568276434789</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>325.3258619783572</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23360,7 +23360,7 @@
         <v>42.6625686604325</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>22.000745178859</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>54.97016096830681</v>
       </c>
       <c r="S12" t="n">
-        <v>61.46580892585432</v>
+        <v>77.96826941067872</v>
       </c>
       <c r="T12" t="n">
-        <v>112.4030568879587</v>
+        <v>172.6352739258752</v>
       </c>
       <c r="U12" t="n">
-        <v>180.929354676774</v>
+        <v>207.9204221206168</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>167.5838563701295</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>127.181789835572</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>117.2888577173313</v>
       </c>
     </row>
     <row r="13">
@@ -23512,13 +23512,13 @@
         <v>347.6031949101294</v>
       </c>
       <c r="H14" t="n">
-        <v>248.3643763158174</v>
+        <v>308.5965933537339</v>
       </c>
       <c r="I14" t="n">
-        <v>37.80336754100641</v>
+        <v>90.85590430800323</v>
       </c>
       <c r="J14" t="n">
-        <v>16.19493633782724</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>15.3748212697451</v>
       </c>
       <c r="R14" t="n">
-        <v>65.0202038394565</v>
+        <v>65.02020383945649</v>
       </c>
       <c r="S14" t="n">
         <v>137.6010409571238</v>
       </c>
       <c r="T14" t="n">
-        <v>216.0313495875199</v>
+        <v>155.7991325496034</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0995449890409</v>
+        <v>216.2419445598713</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>150.2783710965517</v>
+        <v>90.04615405863522</v>
       </c>
       <c r="C15" t="n">
         <v>149.1476881355087</v>
@@ -23585,19 +23585,19 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>62.95527101778302</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>57.98723824451459</v>
+        <v>118.2194552824311</v>
       </c>
       <c r="H15" t="n">
-        <v>32.61422439669694</v>
+        <v>81.23566436231876</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>42.6625686604325</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>22.000745178859</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,16 +23618,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.322780213904764</v>
+        <v>9.322780213904736</v>
       </c>
       <c r="R15" t="n">
-        <v>54.97016096830682</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>121.6980259637708</v>
+        <v>61.46580892585432</v>
       </c>
       <c r="T15" t="n">
-        <v>172.6352739258752</v>
+        <v>114.3206810892687</v>
       </c>
       <c r="U15" t="n">
         <v>207.9204221206168</v>
@@ -23676,25 +23676,25 @@
         <v>115.6337621977075</v>
       </c>
       <c r="J16" t="n">
-        <v>44.62658137956166</v>
+        <v>44.62658137956165</v>
       </c>
       <c r="K16" t="n">
-        <v>21.54368199160337</v>
+        <v>21.54368199160336</v>
       </c>
       <c r="L16" t="n">
-        <v>7.933376015674455</v>
+        <v>7.93337601567444</v>
       </c>
       <c r="M16" t="n">
-        <v>6.225355940651013</v>
+        <v>6.225355940650999</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9183492353166258</v>
+        <v>0.9183492353166116</v>
       </c>
       <c r="O16" t="n">
-        <v>14.18512072001894</v>
+        <v>14.18512072001893</v>
       </c>
       <c r="P16" t="n">
-        <v>24.65325692465092</v>
+        <v>24.6532569246509</v>
       </c>
       <c r="Q16" t="n">
         <v>53.56566312243694</v>
@@ -23740,22 +23740,22 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>304.5188377984434</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>318.6866422491445</v>
       </c>
       <c r="G17" t="n">
-        <v>407.6989110401703</v>
+        <v>324.8694903428652</v>
       </c>
       <c r="H17" t="n">
         <v>307.1986534309535</v>
       </c>
       <c r="I17" t="n">
-        <v>85.59345305713154</v>
+        <v>85.59345305713155</v>
       </c>
       <c r="J17" t="n">
-        <v>4.609592408025733</v>
+        <v>4.609592408025776</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.6342588544005707</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>56.4457286851197</v>
       </c>
       <c r="S17" t="n">
-        <v>40.45167468273246</v>
+        <v>134.49052651891</v>
       </c>
       <c r="T17" t="n">
-        <v>121.3949650271171</v>
+        <v>215.4338168632947</v>
       </c>
       <c r="U17" t="n">
-        <v>159.0497730802333</v>
+        <v>253.0886249164109</v>
       </c>
       <c r="V17" t="n">
-        <v>312.9363080457318</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>291.5192271800962</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23819,22 +23819,22 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>93.99265896768985</v>
+        <v>41.04317414404365</v>
       </c>
       <c r="F18" t="n">
-        <v>29.14863621952196</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>24.10756902181805</v>
+        <v>118.1464208579956</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>80.53030557895501</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>40.14800624017576</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>15.10059370182071</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.43562012484763</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.341443562524</v>
+        <v>26.30259172634653</v>
       </c>
       <c r="T18" t="n">
         <v>172.3408939431725</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9156172242723</v>
+        <v>113.8767653880948</v>
       </c>
       <c r="V18" t="n">
-        <v>220.3146016126436</v>
+        <v>187.9208010401861</v>
       </c>
       <c r="W18" t="n">
         <v>227.816073408046</v>
@@ -23913,10 +23913,10 @@
         <v>113.7924208934615</v>
       </c>
       <c r="J19" t="n">
-        <v>40.2976480896218</v>
+        <v>40.29764808962182</v>
       </c>
       <c r="K19" t="n">
-        <v>14.42991480047165</v>
+        <v>14.42991480047168</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23928,16 +23928,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.530593936942608</v>
       </c>
       <c r="P19" t="n">
-        <v>10.04307597018558</v>
+        <v>17.24781414602683</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.43851839649687</v>
+        <v>48.43851839649689</v>
       </c>
       <c r="R19" t="n">
-        <v>95.79231084391145</v>
+        <v>95.79231084391147</v>
       </c>
       <c r="S19" t="n">
         <v>190.3736175277197</v>
@@ -23955,7 +23955,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>219.004186882063</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23977,7 +23977,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>304.5188377984434</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -23986,13 +23986,13 @@
         <v>407.6989110401703</v>
       </c>
       <c r="H20" t="n">
-        <v>307.1986534309535</v>
+        <v>224.3692327336484</v>
       </c>
       <c r="I20" t="n">
-        <v>85.59345305713154</v>
+        <v>85.59345305713155</v>
       </c>
       <c r="J20" t="n">
-        <v>4.609592408025748</v>
+        <v>4.609592408025776</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.6342588544005707</v>
       </c>
       <c r="R20" t="n">
-        <v>56.44572868511969</v>
+        <v>56.4457286851197</v>
       </c>
       <c r="S20" t="n">
         <v>134.49052651891</v>
       </c>
       <c r="T20" t="n">
-        <v>215.4338168632947</v>
+        <v>121.3949650271172</v>
       </c>
       <c r="U20" t="n">
-        <v>159.0497730802333</v>
+        <v>253.0886249164109</v>
       </c>
       <c r="V20" t="n">
-        <v>244.6468893673392</v>
+        <v>244.6468893673393</v>
       </c>
       <c r="W20" t="n">
-        <v>273.2501928452178</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>303.3629171733691</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24059,16 +24059,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F21" t="n">
-        <v>29.14863621952196</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>24.10756902181805</v>
+        <v>118.1464208579956</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>80.53030557895501</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>40.14800624017576</v>
       </c>
       <c r="J21" t="n">
         <v>15.10059370182071</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.43562012484764</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.341443562524</v>
+        <v>26.30259172634653</v>
       </c>
       <c r="T21" t="n">
-        <v>172.3408939431725</v>
+        <v>78.30204210699502</v>
       </c>
       <c r="U21" t="n">
-        <v>151.7256565099204</v>
+        <v>175.5218166518148</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>133.7772215718685</v>
       </c>
       <c r="X21" t="n">
         <v>187.4140068734885</v>
@@ -24150,10 +24150,10 @@
         <v>113.7924208934615</v>
       </c>
       <c r="J22" t="n">
-        <v>40.29764808962181</v>
+        <v>40.29764808962182</v>
       </c>
       <c r="K22" t="n">
-        <v>14.42991480047166</v>
+        <v>14.42991480047168</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24165,16 +24165,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.530593936942594</v>
+        <v>5.530593936942608</v>
       </c>
       <c r="P22" t="n">
-        <v>17.24781414602681</v>
+        <v>17.24781414602683</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.43851839649687</v>
+        <v>48.43851839649689</v>
       </c>
       <c r="R22" t="n">
-        <v>95.79231084391145</v>
+        <v>95.79231084391147</v>
       </c>
       <c r="S22" t="n">
         <v>190.3736175277197</v>
@@ -24183,7 +24183,7 @@
         <v>230.8085365548506</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5518082053019</v>
+        <v>269.8164760925183</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24195,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.1456084587393</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>368.4942420512996</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24220,7 +24220,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>407.6930376611896</v>
+        <v>312.243058953529</v>
       </c>
       <c r="H23" t="n">
         <v>307.1385026884676</v>
@@ -24229,7 +24229,7 @@
         <v>85.36701961397863</v>
       </c>
       <c r="J23" t="n">
-        <v>4.111096708763711</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>56.07678504272414</v>
       </c>
       <c r="S23" t="n">
-        <v>134.3566868953876</v>
+        <v>38.90670818772698</v>
       </c>
       <c r="T23" t="n">
-        <v>215.4081061468067</v>
+        <v>119.9581274391461</v>
       </c>
       <c r="U23" t="n">
-        <v>157.6381763384318</v>
+        <v>173.1269105091487</v>
       </c>
       <c r="V23" t="n">
-        <v>243.2357624958562</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -24274,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.0758232809443</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24287,13 +24287,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>53.69770942784808</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>33.33809899707383</v>
       </c>
       <c r="E24" t="n">
-        <v>39.63204727256053</v>
+        <v>39.63204727256051</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.24050730624776</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.2830723569031</v>
+        <v>24.83309364924243</v>
       </c>
       <c r="T24" t="n">
         <v>172.3282273226375</v>
@@ -24347,13 +24347,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>193.9842394685863</v>
       </c>
       <c r="X24" t="n">
-        <v>91.96402816582784</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>93.44873350954042</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="25">
@@ -24378,7 +24378,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>152.0521537360101</v>
+        <v>165.9712921203073</v>
       </c>
       <c r="H25" t="n">
         <v>148.5872530378087</v>
@@ -24423,7 +24423,7 @@
         <v>282.5516645000867</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>249.4004133430869</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.0398195466223</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>297.5143762497914</v>
       </c>
       <c r="E26" t="n">
-        <v>314.4853483889135</v>
+        <v>303.1077109269602</v>
       </c>
       <c r="F26" t="n">
         <v>317.2755153776613</v>
       </c>
       <c r="G26" t="n">
-        <v>312.243058953529</v>
+        <v>407.6930376611896</v>
       </c>
       <c r="H26" t="n">
-        <v>307.1385026884676</v>
+        <v>211.688523980807</v>
       </c>
       <c r="I26" t="n">
         <v>85.36701961397863</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>66.20602985084429</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -24533,10 +24533,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>27.73750934803888</v>
       </c>
       <c r="G27" t="n">
-        <v>118.1432783231948</v>
+        <v>22.69329961553413</v>
       </c>
       <c r="H27" t="n">
         <v>80.49995530864157</v>
@@ -24545,7 +24545,7 @@
         <v>40.03980931830453</v>
       </c>
       <c r="J27" t="n">
-        <v>14.80369307837766</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.24050730624776</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>120.2830723569031</v>
@@ -24581,10 +24581,10 @@
         <v>207.9154104785617</v>
       </c>
       <c r="V27" t="n">
-        <v>124.864622904983</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>132.3660947003854</v>
+        <v>208.787932546964</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>169.4368001200911</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24657,7 +24657,7 @@
         <v>230.7972796463247</v>
       </c>
       <c r="U28" t="n">
-        <v>268.6325261157896</v>
+        <v>282.5516645000867</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24682,28 +24682,28 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>305.1714052363911</v>
+        <v>309.282501945155</v>
       </c>
       <c r="D29" t="n">
-        <v>286.1367387878382</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>303.1077109269602</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>317.2755153776614</v>
       </c>
       <c r="G29" t="n">
         <v>407.6930376611896</v>
       </c>
       <c r="H29" t="n">
-        <v>307.1385026884676</v>
+        <v>211.688523980807</v>
       </c>
       <c r="I29" t="n">
         <v>85.36701961397863</v>
       </c>
       <c r="J29" t="n">
-        <v>4.111096708763711</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>271.8390659737347</v>
+        <v>271.8390659737348</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>54.82839238889105</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
         <v>149.1476881355087</v>
@@ -24782,7 +24782,7 @@
         <v>40.03980931830453</v>
       </c>
       <c r="J30" t="n">
-        <v>14.80369307837766</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.24050730624776</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.2830723569031</v>
+        <v>24.83309364924249</v>
       </c>
       <c r="T30" t="n">
-        <v>88.25588607693</v>
+        <v>172.3282273226375</v>
       </c>
       <c r="U30" t="n">
-        <v>112.4654317709011</v>
+        <v>112.4654317709012</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24824,10 +24824,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>91.96402816582788</v>
       </c>
       <c r="Y30" t="n">
-        <v>82.07109604758716</v>
+        <v>158.4929338941659</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>152.0521537360101</v>
+        <v>165.9712921203073</v>
       </c>
       <c r="H31" t="n">
         <v>148.5872530378087</v>
@@ -24897,7 +24897,7 @@
         <v>282.5516645000867</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>249.4004133430869</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24925,22 +24925,22 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>303.1077109269602</v>
+        <v>303.1077109269603</v>
       </c>
       <c r="F32" t="n">
-        <v>317.2755153776613</v>
+        <v>317.2755153776614</v>
       </c>
       <c r="G32" t="n">
-        <v>312.243058953529</v>
+        <v>407.6930376611896</v>
       </c>
       <c r="H32" t="n">
         <v>307.1385026884676</v>
       </c>
       <c r="I32" t="n">
-        <v>85.36701961397863</v>
+        <v>85.36701961397864</v>
       </c>
       <c r="J32" t="n">
-        <v>4.111096708763711</v>
+        <v>4.111096708763725</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>56.07678504272414</v>
+        <v>56.07678504272415</v>
       </c>
       <c r="S32" t="n">
         <v>134.3566868953876</v>
       </c>
       <c r="T32" t="n">
-        <v>215.4081061468067</v>
+        <v>131.3357649010993</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0881550460924</v>
+        <v>157.6381763384318</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>283.2167034356879</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.20602985084429</v>
+        <v>81.00972292922198</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>53.69770942784812</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>33.33809899707389</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>39.63204727256057</v>
       </c>
       <c r="F33" t="n">
         <v>123.1874880556995</v>
@@ -25013,13 +25013,13 @@
         <v>118.1432783231948</v>
       </c>
       <c r="H33" t="n">
-        <v>80.49995530864157</v>
+        <v>80.49995530864159</v>
       </c>
       <c r="I33" t="n">
         <v>40.03980931830453</v>
       </c>
       <c r="J33" t="n">
-        <v>14.80369307837766</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.24050730624776</v>
+        <v>50.24050730624778</v>
       </c>
       <c r="S33" t="n">
         <v>120.2830723569031</v>
@@ -25052,13 +25052,13 @@
         <v>172.3282273226375</v>
       </c>
       <c r="U33" t="n">
-        <v>112.4654317709011</v>
+        <v>207.9154104785617</v>
       </c>
       <c r="V33" t="n">
-        <v>124.864622904983</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>132.3660947003854</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
         <v>187.4140068734885</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>169.4368001200911</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25098,10 +25098,10 @@
         <v>113.7131914181346</v>
       </c>
       <c r="J34" t="n">
-        <v>40.11138217982207</v>
+        <v>40.11138217982208</v>
       </c>
       <c r="K34" t="n">
-        <v>14.12382269204417</v>
+        <v>14.12382269204419</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25113,16 +25113,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>5.158205822558344</v>
+        <v>5.158205822558358</v>
       </c>
       <c r="P34" t="n">
-        <v>16.92917178213641</v>
+        <v>16.92917178213642</v>
       </c>
       <c r="Q34" t="n">
         <v>48.21790694025857</v>
       </c>
       <c r="R34" t="n">
-        <v>95.67384984482833</v>
+        <v>95.67384984482834</v>
       </c>
       <c r="S34" t="n">
         <v>190.3277037114555</v>
@@ -25131,7 +25131,7 @@
         <v>230.7972796463247</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5516645000867</v>
+        <v>268.6325261157896</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25153,31 +25153,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.0398195466223</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>353.5911612925156</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>303.1077109269602</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>317.2755153776614</v>
       </c>
       <c r="G35" t="n">
         <v>407.6930376611896</v>
       </c>
       <c r="H35" t="n">
-        <v>307.1385026884676</v>
+        <v>211.688523980807</v>
       </c>
       <c r="I35" t="n">
-        <v>85.36701961397863</v>
+        <v>85.36701961397864</v>
       </c>
       <c r="J35" t="n">
-        <v>4.111096708763711</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>134.3566868953876</v>
+        <v>38.90670818772703</v>
       </c>
       <c r="T35" t="n">
         <v>215.4081061468067</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>343.4045851871758</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>297.0758232809442</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25250,7 +25250,7 @@
         <v>118.1432783231948</v>
       </c>
       <c r="H36" t="n">
-        <v>80.49995530864157</v>
+        <v>80.49995530864159</v>
       </c>
       <c r="I36" t="n">
         <v>40.03980931830453</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.24050730624776</v>
+        <v>50.24050730624778</v>
       </c>
       <c r="S36" t="n">
         <v>120.2830723569031</v>
       </c>
       <c r="T36" t="n">
-        <v>88.25588607693005</v>
+        <v>76.87824861497693</v>
       </c>
       <c r="U36" t="n">
         <v>112.4654317709011</v>
@@ -25295,7 +25295,7 @@
         <v>124.864622904983</v>
       </c>
       <c r="W36" t="n">
-        <v>132.3660947003854</v>
+        <v>143.7437321623385</v>
       </c>
       <c r="X36" t="n">
         <v>187.4140068734885</v>
@@ -25314,7 +25314,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>154.5839283703735</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25335,10 +25335,10 @@
         <v>113.7131914181346</v>
       </c>
       <c r="J37" t="n">
-        <v>40.11138217982207</v>
+        <v>40.11138217982208</v>
       </c>
       <c r="K37" t="n">
-        <v>14.12382269204417</v>
+        <v>14.12382269204419</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25350,19 +25350,19 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.158205822558344</v>
+        <v>5.158205822558358</v>
       </c>
       <c r="P37" t="n">
-        <v>16.92917178213641</v>
+        <v>16.92917178213642</v>
       </c>
       <c r="Q37" t="n">
         <v>48.21790694025857</v>
       </c>
       <c r="R37" t="n">
-        <v>95.67384984482833</v>
+        <v>95.67384984482834</v>
       </c>
       <c r="S37" t="n">
-        <v>190.3277037114555</v>
+        <v>176.4085653271584</v>
       </c>
       <c r="T37" t="n">
         <v>230.7972796463247</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.0398195466223</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>305.1714052363912</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>286.1367387878383</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -25408,13 +25408,13 @@
         <v>407.6930376611896</v>
       </c>
       <c r="H38" t="n">
-        <v>307.1385026884676</v>
+        <v>227.1772581515239</v>
       </c>
       <c r="I38" t="n">
-        <v>85.36701961397863</v>
+        <v>85.36701961397864</v>
       </c>
       <c r="J38" t="n">
-        <v>4.111096708763711</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>56.07678504272414</v>
+        <v>56.07678504272415</v>
       </c>
       <c r="S38" t="n">
         <v>134.3566868953876</v>
@@ -25450,16 +25450,16 @@
         <v>253.0881550460924</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>243.2357624958562</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>271.8390659737348</v>
       </c>
       <c r="X38" t="n">
-        <v>290.1081003086131</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.0758232809442</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25487,13 +25487,13 @@
         <v>118.1432783231948</v>
       </c>
       <c r="H39" t="n">
-        <v>80.49995530864157</v>
+        <v>80.49995530864159</v>
       </c>
       <c r="I39" t="n">
         <v>40.03980931830453</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>14.80369307837766</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>50.24050730624778</v>
       </c>
       <c r="S39" t="n">
-        <v>101.254931495821</v>
+        <v>120.2830723569031</v>
       </c>
       <c r="T39" t="n">
         <v>172.3282273226375</v>
       </c>
       <c r="U39" t="n">
-        <v>112.4654317709011</v>
+        <v>123.8430692328543</v>
       </c>
       <c r="V39" t="n">
         <v>124.864622904983</v>
@@ -25535,7 +25535,7 @@
         <v>132.3660947003854</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>91.96402816582786</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -25572,10 +25572,10 @@
         <v>113.7131914181346</v>
       </c>
       <c r="J40" t="n">
-        <v>40.11138217982207</v>
+        <v>40.11138217982208</v>
       </c>
       <c r="K40" t="n">
-        <v>14.12382269204417</v>
+        <v>14.12382269204419</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25587,16 +25587,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.158205822558344</v>
+        <v>5.158205822558358</v>
       </c>
       <c r="P40" t="n">
-        <v>16.92917178213641</v>
+        <v>16.92917178213642</v>
       </c>
       <c r="Q40" t="n">
         <v>48.21790694025857</v>
       </c>
       <c r="R40" t="n">
-        <v>95.67384984482833</v>
+        <v>95.67384984482834</v>
       </c>
       <c r="S40" t="n">
         <v>190.3277037114555</v>
@@ -25636,22 +25636,22 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>370.5621334316376</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>317.2755153776614</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>312.243058953529</v>
       </c>
       <c r="H41" t="n">
-        <v>307.1385026884676</v>
+        <v>211.688523980807</v>
       </c>
       <c r="I41" t="n">
-        <v>85.36701961397863</v>
+        <v>85.36701961397864</v>
       </c>
       <c r="J41" t="n">
-        <v>4.111096708763711</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>361.6736195220542</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.82839238889113</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
         <v>149.1476881355087</v>
@@ -25721,13 +25721,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>118.1432783231948</v>
+        <v>22.69329961553417</v>
       </c>
       <c r="H42" t="n">
-        <v>80.49995530864157</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>40.03980931830453</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>14.80369307837766</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.24050730624776</v>
+        <v>50.24050730624778</v>
       </c>
       <c r="S42" t="n">
         <v>120.2830723569031</v>
@@ -25766,16 +25766,16 @@
         <v>207.9154104785617</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>161.3320462862218</v>
       </c>
       <c r="W42" t="n">
         <v>132.3660947003854</v>
       </c>
       <c r="X42" t="n">
-        <v>91.96402816582787</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.44873350954042</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>141.8335370548597</v>
       </c>
       <c r="G43" t="n">
         <v>165.9712921203073</v>
@@ -25809,10 +25809,10 @@
         <v>113.7131914181346</v>
       </c>
       <c r="J43" t="n">
-        <v>40.11138217982207</v>
+        <v>40.11138217982208</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2046843077470246</v>
+        <v>14.12382269204419</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25824,16 +25824,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.158205822558344</v>
+        <v>5.158205822558358</v>
       </c>
       <c r="P43" t="n">
-        <v>16.92917178213641</v>
+        <v>16.92917178213642</v>
       </c>
       <c r="Q43" t="n">
         <v>48.21790694025857</v>
       </c>
       <c r="R43" t="n">
-        <v>95.67384984482833</v>
+        <v>95.67384984482834</v>
       </c>
       <c r="S43" t="n">
         <v>190.3277037114555</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>301.0398195466223</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>351.1652311854335</v>
       </c>
       <c r="D44" t="n">
-        <v>286.1004425621719</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25879,16 +25879,16 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>407.6445998731955</v>
+        <v>407.6930376611896</v>
       </c>
       <c r="H44" t="n">
-        <v>306.6424391921731</v>
+        <v>307.1385026884676</v>
       </c>
       <c r="I44" t="n">
-        <v>83.49962179233633</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.111096708763725</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.03410484264016</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.84433344755874</v>
+        <v>38.90670818772705</v>
       </c>
       <c r="T44" t="n">
-        <v>215.1960697298626</v>
+        <v>215.4081061468067</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0842800230529</v>
+        <v>253.0881550460924</v>
       </c>
       <c r="V44" t="n">
-        <v>230.2771638496033</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>258.8804673274819</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25946,28 +25946,28 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>40.73911078159523</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>39.63204727256056</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>39.1151468099921</v>
       </c>
       <c r="G45" t="n">
-        <v>118.1173618218166</v>
+        <v>118.1432783231948</v>
       </c>
       <c r="H45" t="n">
-        <v>80.24965646638408</v>
+        <v>80.49995530864159</v>
       </c>
       <c r="I45" t="n">
-        <v>39.14750872260909</v>
+        <v>40.03980931830453</v>
       </c>
       <c r="J45" t="n">
-        <v>12.35515204246995</v>
+        <v>14.80369307837766</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>48.63141084348793</v>
+        <v>50.24050730624778</v>
       </c>
       <c r="S45" t="n">
-        <v>119.8016847106903</v>
+        <v>120.2830723569031</v>
       </c>
       <c r="T45" t="n">
-        <v>172.223765635065</v>
+        <v>172.3282273226375</v>
       </c>
       <c r="U45" t="n">
-        <v>99.50512809166287</v>
+        <v>112.4654317709011</v>
       </c>
       <c r="V45" t="n">
-        <v>124.8283266793166</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W45" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>79.00542951957499</v>
+        <v>91.96402816582787</v>
       </c>
       <c r="Y45" t="n">
         <v>177.5210747552478</v>
@@ -26037,19 +26037,19 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>142.2675695335698</v>
+        <v>165.9712921203073</v>
       </c>
       <c r="H46" t="n">
-        <v>148.3940755956984</v>
+        <v>148.5872530378087</v>
       </c>
       <c r="I46" t="n">
-        <v>113.0597855096467</v>
+        <v>113.7131914181346</v>
       </c>
       <c r="J46" t="n">
-        <v>38.57524622144537</v>
+        <v>40.11138217982208</v>
       </c>
       <c r="K46" t="n">
-        <v>11.599479430111</v>
+        <v>14.12382269204419</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26061,25 +26061,25 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>2.087119043486581</v>
+        <v>5.158205822558358</v>
       </c>
       <c r="P46" t="n">
-        <v>14.30132649600503</v>
+        <v>16.92917178213642</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.39852307596541</v>
+        <v>48.21790694025857</v>
       </c>
       <c r="R46" t="n">
-        <v>94.69690134924761</v>
+        <v>95.67384984482834</v>
       </c>
       <c r="S46" t="n">
-        <v>189.9490522221656</v>
+        <v>190.3277037114555</v>
       </c>
       <c r="T46" t="n">
-        <v>230.7044438612615</v>
+        <v>230.7972796463247</v>
       </c>
       <c r="U46" t="n">
-        <v>282.550479362405</v>
+        <v>268.6325261157896</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>173512.5556719638</v>
+        <v>176207.1163552823</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>249042.3599521628</v>
+        <v>249042.3599521629</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>249042.3599521628</v>
+        <v>249042.3599521629</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>281579.5793138825</v>
+        <v>281579.5793138823</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>281579.5793138825</v>
+        <v>281579.5793138823</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>292522.1937525351</v>
+        <v>281579.5793138823</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43378.13891799093</v>
+        <v>44051.77908882056</v>
       </c>
       <c r="C2" t="n">
-        <v>44051.77908882057</v>
+        <v>44051.77908882056</v>
       </c>
       <c r="D2" t="n">
         <v>44065.72579722567</v>
       </c>
       <c r="E2" t="n">
-        <v>62260.5899880407</v>
+        <v>62260.58998804072</v>
       </c>
       <c r="F2" t="n">
-        <v>62260.58998804069</v>
+        <v>62260.58998804072</v>
       </c>
       <c r="G2" t="n">
-        <v>70072.05349652514</v>
+        <v>70072.05349652511</v>
       </c>
       <c r="H2" t="n">
-        <v>70072.05349652513</v>
+        <v>70072.05349652511</v>
       </c>
       <c r="I2" t="n">
         <v>70394.89482847066</v>
       </c>
       <c r="J2" t="n">
+        <v>70394.89482847067</v>
+      </c>
+      <c r="K2" t="n">
+        <v>70394.89482847064</v>
+      </c>
+      <c r="L2" t="n">
         <v>70394.89482847066</v>
       </c>
-      <c r="K2" t="n">
-        <v>70394.89482847066</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>70394.89482847064</v>
       </c>
-      <c r="M2" t="n">
-        <v>70394.89482847067</v>
-      </c>
       <c r="N2" t="n">
-        <v>70394.89482847067</v>
+        <v>70394.89482847064</v>
       </c>
       <c r="O2" t="n">
         <v>70394.89482847064</v>
       </c>
       <c r="P2" t="n">
-        <v>73130.54843813383</v>
+        <v>70394.89482847063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200319.5244833603</v>
+        <v>204303.2343448305</v>
       </c>
       <c r="C3" t="n">
-        <v>3764.555031194542</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>76.14999519234023</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35665.15223733685</v>
+        <v>35665.1522373367</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1475.016832181934</v>
+        <v>1475.016832181996</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8135.600470836309</v>
+        <v>8135.600470836305</v>
       </c>
       <c r="P3" t="n">
-        <v>11082.53430542116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26429,37 +26429,37 @@
         <v>43.64462950941392</v>
       </c>
       <c r="F4" t="n">
-        <v>43.6446295094139</v>
+        <v>43.64462950941391</v>
       </c>
       <c r="G4" t="n">
-        <v>68.60890276678765</v>
+        <v>68.60890276678757</v>
       </c>
       <c r="H4" t="n">
-        <v>68.60890276678762</v>
+        <v>68.60890276678757</v>
       </c>
       <c r="I4" t="n">
         <v>69.67489617417085</v>
       </c>
       <c r="J4" t="n">
-        <v>69.67489617417085</v>
+        <v>69.67489617417084</v>
       </c>
       <c r="K4" t="n">
-        <v>69.67489617417087</v>
+        <v>69.67489617417084</v>
       </c>
       <c r="L4" t="n">
-        <v>69.67489617417085</v>
+        <v>69.67489617417081</v>
       </c>
       <c r="M4" t="n">
-        <v>69.67489617417085</v>
+        <v>69.67489617417081</v>
       </c>
       <c r="N4" t="n">
-        <v>69.67489617417085</v>
+        <v>69.67489617417081</v>
       </c>
       <c r="O4" t="n">
-        <v>69.67489617417084</v>
+        <v>69.67489617417081</v>
       </c>
       <c r="P4" t="n">
-        <v>79.42337424992347</v>
+        <v>69.67489617417081</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38159.46666611726</v>
+        <v>38249.59089127825</v>
       </c>
       <c r="C5" t="n">
         <v>38249.59089127825</v>
@@ -26484,10 +26484,10 @@
         <v>10146.18778279355</v>
       </c>
       <c r="G5" t="n">
-        <v>12941.8414767099</v>
+        <v>12941.84147670989</v>
       </c>
       <c r="H5" t="n">
-        <v>12941.8414767099</v>
+        <v>12941.84147670989</v>
       </c>
       <c r="I5" t="n">
         <v>13059.48785636359</v>
@@ -26496,22 +26496,22 @@
         <v>13059.48785636359</v>
       </c>
       <c r="K5" t="n">
-        <v>13059.48785636359</v>
+        <v>13059.48785636358</v>
       </c>
       <c r="L5" t="n">
-        <v>13059.48785636359</v>
+        <v>13059.48785636358</v>
       </c>
       <c r="M5" t="n">
-        <v>13059.48785636359</v>
+        <v>13059.48785636358</v>
       </c>
       <c r="N5" t="n">
-        <v>13059.48785636359</v>
+        <v>13059.48785636358</v>
       </c>
       <c r="O5" t="n">
         <v>13059.48785636358</v>
       </c>
       <c r="P5" t="n">
-        <v>14110.03666890073</v>
+        <v>13059.48785636358</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-195100.8522314866</v>
+        <v>-199989.7123633016</v>
       </c>
       <c r="C6" t="n">
-        <v>2037.633166347783</v>
+        <v>4313.521981528888</v>
       </c>
       <c r="D6" t="n">
-        <v>5738.046514260874</v>
+        <v>4249.479917593204</v>
       </c>
       <c r="E6" t="n">
-        <v>-34465.63414359217</v>
+        <v>-35824.23742461116</v>
       </c>
       <c r="F6" t="n">
-        <v>52070.75757573773</v>
+        <v>50712.15429471876</v>
       </c>
       <c r="G6" t="n">
-        <v>21396.45087971161</v>
+        <v>20093.64376661049</v>
       </c>
       <c r="H6" t="n">
-        <v>57061.60311704844</v>
+        <v>55758.79600394718</v>
       </c>
       <c r="I6" t="n">
-        <v>55790.71524375096</v>
+        <v>54490.21414016356</v>
       </c>
       <c r="J6" t="n">
-        <v>57265.7320759329</v>
+        <v>55965.23097234557</v>
       </c>
       <c r="K6" t="n">
-        <v>57265.7320759329</v>
+        <v>55965.23097234554</v>
       </c>
       <c r="L6" t="n">
-        <v>57265.73207593289</v>
+        <v>55965.23097234555</v>
       </c>
       <c r="M6" t="n">
-        <v>42255.62266121597</v>
+        <v>40955.12155762859</v>
       </c>
       <c r="N6" t="n">
-        <v>57265.73207593292</v>
+        <v>55965.23097234554</v>
       </c>
       <c r="O6" t="n">
-        <v>49130.13160509658</v>
+        <v>47829.63050150924</v>
       </c>
       <c r="P6" t="n">
-        <v>47858.55408956202</v>
+        <v>55965.23097234553</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="C3" t="n">
         <v>212.0179307925801</v>
@@ -26749,13 +26749,13 @@
         <v>297.4343571967077</v>
       </c>
       <c r="F3" t="n">
-        <v>297.4343571967076</v>
+        <v>297.4343571967077</v>
       </c>
       <c r="G3" t="n">
-        <v>331.3889580307479</v>
+        <v>331.3889580307477</v>
       </c>
       <c r="H3" t="n">
-        <v>331.3889580307478</v>
+        <v>331.3889580307477</v>
       </c>
       <c r="I3" t="n">
         <v>332.8499610521936</v>
@@ -26767,19 +26767,19 @@
         <v>332.8499610521936</v>
       </c>
       <c r="L3" t="n">
-        <v>332.8499610521936</v>
+        <v>332.8499610521935</v>
       </c>
       <c r="M3" t="n">
-        <v>332.8499610521936</v>
+        <v>332.8499610521935</v>
       </c>
       <c r="N3" t="n">
-        <v>332.8499610521936</v>
+        <v>332.8499610521935</v>
       </c>
       <c r="O3" t="n">
-        <v>332.8499610521936</v>
+        <v>332.8499610521935</v>
       </c>
       <c r="P3" t="n">
-        <v>344.8988608157244</v>
+        <v>332.8499610521935</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>60.2322170379165</v>
       </c>
       <c r="G4" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="H4" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="I4" t="n">
-        <v>95.44997870766062</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="J4" t="n">
         <v>95.44997870766063</v>
       </c>
       <c r="K4" t="n">
-        <v>95.44997870766068</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="L4" t="n">
-        <v>95.44997870766063</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="M4" t="n">
-        <v>95.44997870766066</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="N4" t="n">
-        <v>95.44997870766065</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="O4" t="n">
         <v>95.44997870766059</v>
       </c>
       <c r="P4" t="n">
-        <v>108.4085773539135</v>
+        <v>95.44997870766059</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="C3" t="n">
-        <v>4.134138768852409</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.08891727037664054</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>33.95460083404026</v>
+        <v>33.95460083404009</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.461003021445777</v>
+        <v>1.461003021445833</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.04889976353081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>33.80663479826106</v>
+        <v>33.806634798261</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.411126871483063</v>
+        <v>1.411126871483134</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>33.806634798261</v>
+        <v>33.80663479826099</v>
       </c>
       <c r="P4" t="n">
-        <v>12.95859864625288</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>33.80663479826106</v>
+        <v>33.806634798261</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H2" t="n">
-        <v>8.558753306785929</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I2" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J2" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K2" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L2" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M2" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P2" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R2" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S2" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T2" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H3" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I3" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J3" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K3" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L3" t="n">
         <v>90.06034685691823</v>
@@ -31147,22 +31147,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>57.07782908545823</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R3" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S3" t="n">
-        <v>8.305545841702699</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T3" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H4" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I4" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J4" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K4" t="n">
-        <v>43.55335839447932</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L4" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M4" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N4" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O4" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P4" t="n">
-        <v>45.33911424727332</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R4" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S4" t="n">
-        <v>6.533003759171898</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T4" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>0.8523333901209244</v>
       </c>
       <c r="H5" t="n">
-        <v>8.72895933157592</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I5" t="n">
         <v>32.85958302263697</v>
@@ -31308,7 +31308,7 @@
         <v>122.5666069161267</v>
       </c>
       <c r="Q5" t="n">
-        <v>92.04241738242102</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R5" t="n">
         <v>53.54038731718357</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4560385681198892</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H6" t="n">
         <v>4.40437248684209</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3823274161833412</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H7" t="n">
         <v>3.399238300248254</v>
@@ -31457,7 +31457,7 @@
         <v>59.93156033863045</v>
       </c>
       <c r="N7" t="n">
-        <v>58.50652178740168</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O7" t="n">
         <v>54.04024242562355</v>
@@ -31469,7 +31469,7 @@
         <v>32.01470754967959</v>
       </c>
       <c r="R7" t="n">
-        <v>17.1908309131164</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S7" t="n">
         <v>6.662924152940588</v>
@@ -31852,13 +31852,13 @@
         <v>152.6193390872284</v>
       </c>
       <c r="N12" t="n">
-        <v>145.6043298920832</v>
+        <v>141.5455446748732</v>
       </c>
       <c r="O12" t="n">
-        <v>113.0738676324777</v>
+        <v>152.2162412721679</v>
       </c>
       <c r="P12" t="n">
-        <v>122.1669532417949</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>81.66537294200926</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.195716008830984</v>
+        <v>1.195716008830985</v>
       </c>
       <c r="H14" t="n">
         <v>12.24562657544032</v>
       </c>
       <c r="I14" t="n">
-        <v>46.09784143045657</v>
+        <v>46.09784143045658</v>
       </c>
       <c r="J14" t="n">
         <v>101.4849016045189</v>
@@ -32004,10 +32004,10 @@
         <v>152.0995602583345</v>
       </c>
       <c r="L14" t="n">
-        <v>188.6929540635957</v>
+        <v>188.6929540635958</v>
       </c>
       <c r="M14" t="n">
-        <v>209.9572686356437</v>
+        <v>209.9572686356438</v>
       </c>
       <c r="N14" t="n">
         <v>209.3507083757006</v>
@@ -32016,22 +32016,22 @@
         <v>201.4646956829217</v>
       </c>
       <c r="P14" t="n">
-        <v>171.9454567149067</v>
+        <v>171.9454567149068</v>
       </c>
       <c r="Q14" t="n">
         <v>129.1238771486471</v>
       </c>
       <c r="R14" t="n">
-        <v>75.11039573972938</v>
+        <v>75.1103957397294</v>
       </c>
       <c r="S14" t="n">
         <v>27.24737855123609</v>
       </c>
       <c r="T14" t="n">
-        <v>5.234246828657636</v>
+        <v>5.234246828657638</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09565728070647873</v>
+        <v>0.09565728070647875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,40 +32068,40 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6397644664231069</v>
+        <v>0.639764466423107</v>
       </c>
       <c r="H15" t="n">
-        <v>6.178777873086323</v>
+        <v>6.178777873086324</v>
       </c>
       <c r="I15" t="n">
         <v>22.0269783395675</v>
       </c>
       <c r="J15" t="n">
-        <v>60.44371215447433</v>
+        <v>60.44371215447435</v>
       </c>
       <c r="K15" t="n">
         <v>103.3079314048225</v>
       </c>
       <c r="L15" t="n">
-        <v>138.910262764368</v>
+        <v>138.9102627643681</v>
       </c>
       <c r="M15" t="n">
         <v>152.6193390872284</v>
       </c>
       <c r="N15" t="n">
-        <v>106.4619562523931</v>
+        <v>145.6043298920832</v>
       </c>
       <c r="O15" t="n">
-        <v>152.2162412721679</v>
+        <v>113.0738676324777</v>
       </c>
       <c r="P15" t="n">
         <v>122.1669532417949</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.66537294200923</v>
+        <v>81.66537294200926</v>
       </c>
       <c r="R15" t="n">
-        <v>39.72151660826976</v>
+        <v>39.72151660826977</v>
       </c>
       <c r="S15" t="n">
         <v>11.88334436535902</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5363570375678333</v>
+        <v>0.5363570375678334</v>
       </c>
       <c r="H16" t="n">
-        <v>4.768701661284921</v>
+        <v>4.768701661284922</v>
       </c>
       <c r="I16" t="n">
-        <v>16.12971891158539</v>
+        <v>16.1297189115854</v>
       </c>
       <c r="J16" t="n">
-        <v>37.92044255604581</v>
+        <v>37.92044255604582</v>
       </c>
       <c r="K16" t="n">
-        <v>62.31493581924462</v>
+        <v>62.31493581924463</v>
       </c>
       <c r="L16" t="n">
-        <v>79.74166356713043</v>
+        <v>79.74166356713044</v>
       </c>
       <c r="M16" t="n">
-        <v>84.07640362529226</v>
+        <v>84.07640362529227</v>
       </c>
       <c r="N16" t="n">
-        <v>82.07725466708494</v>
+        <v>82.07725466708496</v>
       </c>
       <c r="O16" t="n">
-        <v>75.81162927367886</v>
+        <v>75.81162927367888</v>
       </c>
       <c r="P16" t="n">
-        <v>64.86994570729502</v>
+        <v>64.86994570729503</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.91258793670285</v>
+        <v>44.91258793670286</v>
       </c>
       <c r="R16" t="n">
         <v>24.1165627982773</v>
       </c>
       <c r="S16" t="n">
-        <v>9.347240372886692</v>
+        <v>9.347240372886693</v>
       </c>
       <c r="T16" t="n">
-        <v>2.291707342335287</v>
+        <v>2.291707342335288</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02925583841279094</v>
+        <v>0.02925583841279095</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,40 +32232,40 @@
         <v>13.64356649822068</v>
       </c>
       <c r="I17" t="n">
-        <v>51.36029268132828</v>
+        <v>51.36029268132826</v>
       </c>
       <c r="J17" t="n">
-        <v>113.0702455343204</v>
+        <v>113.0702455343203</v>
       </c>
       <c r="K17" t="n">
         <v>169.4629876185075</v>
       </c>
       <c r="L17" t="n">
-        <v>210.2338210831648</v>
+        <v>210.2338210831647</v>
       </c>
       <c r="M17" t="n">
-        <v>233.9256336756444</v>
+        <v>233.9256336756443</v>
       </c>
       <c r="N17" t="n">
-        <v>237.7107949902369</v>
+        <v>237.7107949902368</v>
       </c>
       <c r="O17" t="n">
-        <v>224.4635630247364</v>
+        <v>224.4635630247363</v>
       </c>
       <c r="P17" t="n">
         <v>191.574457893544</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.8644395639917</v>
+        <v>143.8644395639916</v>
       </c>
       <c r="R17" t="n">
-        <v>83.68487089406621</v>
+        <v>83.68487089406618</v>
       </c>
       <c r="S17" t="n">
-        <v>30.35789298944993</v>
+        <v>30.35789298944992</v>
       </c>
       <c r="T17" t="n">
-        <v>5.831779552882808</v>
+        <v>5.831779552882805</v>
       </c>
       <c r="U17" t="n">
         <v>0.1065773533365218</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7127988908585897</v>
+        <v>0.7127988908585895</v>
       </c>
       <c r="H18" t="n">
-        <v>6.884136656450066</v>
+        <v>6.884136656450063</v>
       </c>
       <c r="I18" t="n">
         <v>24.54154075982425</v>
       </c>
       <c r="J18" t="n">
-        <v>67.34386363151265</v>
+        <v>67.34386363151263</v>
       </c>
       <c r="K18" t="n">
-        <v>115.1013893190382</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>128.7176486580005</v>
+        <v>154.7680223331337</v>
       </c>
       <c r="M18" t="n">
-        <v>180.6069821267576</v>
+        <v>180.6069821267575</v>
       </c>
       <c r="N18" t="n">
-        <v>179.4109646903442</v>
+        <v>179.4109646903441</v>
       </c>
       <c r="O18" t="n">
-        <v>169.5929887386224</v>
+        <v>169.0470690491941</v>
       </c>
       <c r="P18" t="n">
-        <v>136.1133250447425</v>
+        <v>136.1133250447424</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591402</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
-        <v>44.25605745172895</v>
+        <v>44.25605745172894</v>
       </c>
       <c r="S18" t="n">
         <v>13.23992676660581</v>
       </c>
       <c r="T18" t="n">
-        <v>2.873079739908087</v>
+        <v>2.873079739908086</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04689466387227566</v>
+        <v>0.04689466387227564</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5975866456292174</v>
+        <v>0.5975866456292172</v>
       </c>
       <c r="H19" t="n">
-        <v>5.313088540230682</v>
+        <v>5.31308854023068</v>
       </c>
       <c r="I19" t="n">
-        <v>17.97106021583138</v>
+        <v>17.97106021583137</v>
       </c>
       <c r="J19" t="n">
-        <v>42.24937584598567</v>
+        <v>42.24937584598565</v>
       </c>
       <c r="K19" t="n">
-        <v>69.42870301037634</v>
+        <v>69.42870301037631</v>
       </c>
       <c r="L19" t="n">
-        <v>88.84483638745657</v>
+        <v>88.84483638745654</v>
       </c>
       <c r="M19" t="n">
-        <v>93.67442300531449</v>
+        <v>93.67442300531447</v>
       </c>
       <c r="N19" t="n">
-        <v>91.4470545988784</v>
+        <v>91.44705459887837</v>
       </c>
       <c r="O19" t="n">
-        <v>84.46615605675522</v>
+        <v>84.4661560567552</v>
       </c>
       <c r="P19" t="n">
-        <v>72.27538848591914</v>
+        <v>72.27538848591911</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.03973266264293</v>
+        <v>50.0397326626429</v>
       </c>
       <c r="R19" t="n">
-        <v>26.86966862983735</v>
+        <v>26.86966862983734</v>
       </c>
       <c r="S19" t="n">
-        <v>10.41430545155645</v>
+        <v>10.41430545155644</v>
       </c>
       <c r="T19" t="n">
-        <v>2.553324758597565</v>
+        <v>2.553324758597564</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03259563521613917</v>
+        <v>0.03259563521613916</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.64356649822068</v>
       </c>
       <c r="I20" t="n">
-        <v>51.36029268132827</v>
+        <v>51.36029268132826</v>
       </c>
       <c r="J20" t="n">
         <v>113.0702455343203</v>
@@ -32478,10 +32478,10 @@
         <v>169.4629876185075</v>
       </c>
       <c r="L20" t="n">
-        <v>210.2338210831648</v>
+        <v>210.2338210831647</v>
       </c>
       <c r="M20" t="n">
-        <v>233.9256336756444</v>
+        <v>233.9256336756443</v>
       </c>
       <c r="N20" t="n">
         <v>237.7107949902368</v>
@@ -32496,13 +32496,13 @@
         <v>143.8644395639916</v>
       </c>
       <c r="R20" t="n">
-        <v>83.68487089406619</v>
+        <v>83.68487089406618</v>
       </c>
       <c r="S20" t="n">
         <v>30.35789298944992</v>
       </c>
       <c r="T20" t="n">
-        <v>5.831779552882806</v>
+        <v>5.831779552882805</v>
       </c>
       <c r="U20" t="n">
         <v>0.1065773533365218</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7127988908585896</v>
+        <v>0.7127988908585895</v>
       </c>
       <c r="H21" t="n">
-        <v>6.884136656450064</v>
+        <v>6.884136656450063</v>
       </c>
       <c r="I21" t="n">
         <v>24.54154075982425</v>
@@ -32563,16 +32563,16 @@
         <v>180.6069821267575</v>
       </c>
       <c r="N21" t="n">
-        <v>179.4109646903442</v>
+        <v>179.4109646903441</v>
       </c>
       <c r="O21" t="n">
-        <v>143.5426150634894</v>
+        <v>169.5929887386224</v>
       </c>
       <c r="P21" t="n">
-        <v>136.1133250447425</v>
+        <v>110.0629513696094</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591401</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>44.25605745172894</v>
@@ -32584,7 +32584,7 @@
         <v>2.873079739908086</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04689466387227565</v>
+        <v>0.04689466387227564</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,43 +32621,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5975866456292173</v>
+        <v>0.5975866456292172</v>
       </c>
       <c r="H22" t="n">
-        <v>5.313088540230681</v>
+        <v>5.31308854023068</v>
       </c>
       <c r="I22" t="n">
-        <v>17.97106021583138</v>
+        <v>17.97106021583137</v>
       </c>
       <c r="J22" t="n">
-        <v>42.24937584598566</v>
+        <v>42.24937584598565</v>
       </c>
       <c r="K22" t="n">
-        <v>69.42870301037632</v>
+        <v>69.42870301037631</v>
       </c>
       <c r="L22" t="n">
-        <v>88.84483638745655</v>
+        <v>88.84483638745654</v>
       </c>
       <c r="M22" t="n">
-        <v>93.67442300531448</v>
+        <v>93.67442300531447</v>
       </c>
       <c r="N22" t="n">
-        <v>91.44705459887838</v>
+        <v>91.44705459887837</v>
       </c>
       <c r="O22" t="n">
-        <v>84.46615605675521</v>
+        <v>84.4661560567552</v>
       </c>
       <c r="P22" t="n">
-        <v>72.27538848591912</v>
+        <v>72.27538848591911</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.03973266264292</v>
+        <v>50.0397326626429</v>
       </c>
       <c r="R22" t="n">
-        <v>26.86966862983735</v>
+        <v>26.86966862983734</v>
       </c>
       <c r="S22" t="n">
-        <v>10.41430545155645</v>
+        <v>10.41430545155644</v>
       </c>
       <c r="T22" t="n">
         <v>2.553324758597564</v>
@@ -32800,16 +32800,16 @@
         <v>181.4032287734455</v>
       </c>
       <c r="N24" t="n">
-        <v>155.6142811247841</v>
+        <v>180.8220915618273</v>
       </c>
       <c r="O24" t="n">
         <v>170.3406777094183</v>
       </c>
       <c r="P24" t="n">
-        <v>136.7134113612302</v>
+        <v>111.1044591134686</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>91.38929496663248</v>
       </c>
       <c r="R24" t="n">
         <v>44.45117027032882</v>
@@ -33271,19 +33271,19 @@
         <v>155.450352093291</v>
       </c>
       <c r="M30" t="n">
-        <v>155.794276525684</v>
+        <v>181.4032287734455</v>
       </c>
       <c r="N30" t="n">
-        <v>180.8220915618273</v>
+        <v>180.8220915618272</v>
       </c>
       <c r="O30" t="n">
         <v>170.3406777094183</v>
       </c>
       <c r="P30" t="n">
-        <v>136.7134113612302</v>
+        <v>111.5056009241869</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.38929496663248</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>44.45117027032882</v>
@@ -33414,10 +33414,10 @@
         <v>1.338090295687209</v>
       </c>
       <c r="H32" t="n">
-        <v>13.70371724070664</v>
+        <v>13.70371724070663</v>
       </c>
       <c r="I32" t="n">
-        <v>51.58672612448119</v>
+        <v>51.58672612448118</v>
       </c>
       <c r="J32" t="n">
         <v>113.5687412335824</v>
@@ -33426,31 +33426,31 @@
         <v>170.210103450022</v>
       </c>
       <c r="L32" t="n">
-        <v>211.1606843366595</v>
+        <v>211.1606843366594</v>
       </c>
       <c r="M32" t="n">
-        <v>234.9569476325869</v>
+        <v>234.9569476325868</v>
       </c>
       <c r="N32" t="n">
-        <v>238.7587966852082</v>
+        <v>238.7587966852081</v>
       </c>
       <c r="O32" t="n">
-        <v>225.4531613074685</v>
+        <v>225.4531613074684</v>
       </c>
       <c r="P32" t="n">
-        <v>192.4190571326905</v>
+        <v>192.4190571326904</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
-        <v>84.05381453646174</v>
+        <v>84.05381453646173</v>
       </c>
       <c r="S32" t="n">
         <v>30.49173261297231</v>
       </c>
       <c r="T32" t="n">
-        <v>5.857490269370762</v>
+        <v>5.857490269370761</v>
       </c>
       <c r="U32" t="n">
         <v>0.1070472236549767</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7159414256594353</v>
+        <v>0.7159414256594352</v>
       </c>
       <c r="H33" t="n">
-        <v>6.914486926763495</v>
+        <v>6.914486926763493</v>
       </c>
       <c r="I33" t="n">
         <v>24.64973768169547</v>
@@ -33508,22 +33508,22 @@
         <v>155.450352093291</v>
       </c>
       <c r="M33" t="n">
-        <v>181.4032287734455</v>
+        <v>181.4032287734454</v>
       </c>
       <c r="N33" t="n">
-        <v>155.2131393140657</v>
+        <v>180.8220915618272</v>
       </c>
       <c r="O33" t="n">
         <v>170.3406777094183</v>
       </c>
       <c r="P33" t="n">
-        <v>136.7134113612302</v>
+        <v>111.1044591134686</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.38929496663248</v>
+        <v>91.38929496663246</v>
       </c>
       <c r="R33" t="n">
-        <v>44.45117027032882</v>
+        <v>44.4511702703288</v>
       </c>
       <c r="S33" t="n">
         <v>13.29829797222678</v>
@@ -33532,7 +33532,7 @@
         <v>2.885746360443073</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0471014095828576</v>
+        <v>0.04710140958285759</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,34 +33572,34 @@
         <v>0.6002212412416604</v>
       </c>
       <c r="H34" t="n">
-        <v>5.336512490312222</v>
+        <v>5.336512490312221</v>
       </c>
       <c r="I34" t="n">
-        <v>18.05028969115831</v>
+        <v>18.0502896911583</v>
       </c>
       <c r="J34" t="n">
-        <v>42.4356417557854</v>
+        <v>42.43564175578539</v>
       </c>
       <c r="K34" t="n">
-        <v>69.73479511880382</v>
+        <v>69.7347951188038</v>
       </c>
       <c r="L34" t="n">
-        <v>89.23652890241925</v>
+        <v>89.23652890241924</v>
       </c>
       <c r="M34" t="n">
-        <v>94.08740784299955</v>
+        <v>94.08740784299954</v>
       </c>
       <c r="N34" t="n">
-        <v>91.8502195801898</v>
+        <v>91.85021958018979</v>
       </c>
       <c r="O34" t="n">
-        <v>84.83854417113946</v>
+        <v>84.83854417113945</v>
       </c>
       <c r="P34" t="n">
-        <v>72.59403084980953</v>
+        <v>72.59403084980951</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.26034411888123</v>
+        <v>50.26034411888122</v>
       </c>
       <c r="R34" t="n">
         <v>26.98812962892047</v>
@@ -33608,10 +33608,10 @@
         <v>10.46021926782057</v>
       </c>
       <c r="T34" t="n">
-        <v>2.564581667123458</v>
+        <v>2.564581667123457</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03273934043136334</v>
+        <v>0.03273934043136333</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>1.338090295687209</v>
       </c>
       <c r="H35" t="n">
-        <v>13.70371724070664</v>
+        <v>13.70371724070663</v>
       </c>
       <c r="I35" t="n">
-        <v>51.58672612448119</v>
+        <v>51.58672612448118</v>
       </c>
       <c r="J35" t="n">
         <v>113.5687412335824</v>
@@ -33663,31 +33663,31 @@
         <v>170.210103450022</v>
       </c>
       <c r="L35" t="n">
-        <v>211.1606843366595</v>
+        <v>211.1606843366594</v>
       </c>
       <c r="M35" t="n">
-        <v>234.9569476325869</v>
+        <v>234.9569476325868</v>
       </c>
       <c r="N35" t="n">
-        <v>238.7587966852082</v>
+        <v>238.7587966852081</v>
       </c>
       <c r="O35" t="n">
-        <v>225.4531613074685</v>
+        <v>225.4531613074684</v>
       </c>
       <c r="P35" t="n">
-        <v>192.4190571326905</v>
+        <v>192.4190571326904</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
-        <v>84.05381453646174</v>
+        <v>84.05381453646173</v>
       </c>
       <c r="S35" t="n">
         <v>30.49173261297231</v>
       </c>
       <c r="T35" t="n">
-        <v>5.857490269370762</v>
+        <v>5.857490269370761</v>
       </c>
       <c r="U35" t="n">
         <v>0.1070472236549767</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7159414256594353</v>
+        <v>0.7159414256594352</v>
       </c>
       <c r="H36" t="n">
-        <v>6.914486926763495</v>
+        <v>6.914486926763493</v>
       </c>
       <c r="I36" t="n">
         <v>24.64973768169547</v>
@@ -33745,7 +33745,7 @@
         <v>155.450352093291</v>
       </c>
       <c r="M36" t="n">
-        <v>181.4032287734455</v>
+        <v>181.4032287734454</v>
       </c>
       <c r="N36" t="n">
         <v>180.8220915618273</v>
@@ -33760,7 +33760,7 @@
         <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
-        <v>44.45117027032882</v>
+        <v>44.4511702703288</v>
       </c>
       <c r="S36" t="n">
         <v>13.29829797222678</v>
@@ -33769,7 +33769,7 @@
         <v>2.885746360443073</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0471014095828576</v>
+        <v>0.04710140958285759</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,34 +33809,34 @@
         <v>0.6002212412416604</v>
       </c>
       <c r="H37" t="n">
-        <v>5.336512490312222</v>
+        <v>5.336512490312221</v>
       </c>
       <c r="I37" t="n">
-        <v>18.05028969115831</v>
+        <v>18.0502896911583</v>
       </c>
       <c r="J37" t="n">
-        <v>42.4356417557854</v>
+        <v>42.43564175578539</v>
       </c>
       <c r="K37" t="n">
-        <v>69.73479511880382</v>
+        <v>69.7347951188038</v>
       </c>
       <c r="L37" t="n">
-        <v>89.23652890241925</v>
+        <v>89.23652890241924</v>
       </c>
       <c r="M37" t="n">
-        <v>94.08740784299955</v>
+        <v>94.08740784299954</v>
       </c>
       <c r="N37" t="n">
-        <v>91.8502195801898</v>
+        <v>91.85021958018979</v>
       </c>
       <c r="O37" t="n">
-        <v>84.83854417113946</v>
+        <v>84.83854417113945</v>
       </c>
       <c r="P37" t="n">
-        <v>72.59403084980953</v>
+        <v>72.59403084980951</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.26034411888123</v>
+        <v>50.26034411888122</v>
       </c>
       <c r="R37" t="n">
         <v>26.98812962892047</v>
@@ -33845,10 +33845,10 @@
         <v>10.46021926782057</v>
       </c>
       <c r="T37" t="n">
-        <v>2.564581667123458</v>
+        <v>2.564581667123457</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03273934043136334</v>
+        <v>0.03273934043136333</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>1.338090295687209</v>
       </c>
       <c r="H38" t="n">
-        <v>13.70371724070664</v>
+        <v>13.70371724070663</v>
       </c>
       <c r="I38" t="n">
-        <v>51.58672612448119</v>
+        <v>51.58672612448118</v>
       </c>
       <c r="J38" t="n">
         <v>113.5687412335824</v>
@@ -33900,31 +33900,31 @@
         <v>170.210103450022</v>
       </c>
       <c r="L38" t="n">
-        <v>211.1606843366595</v>
+        <v>211.1606843366594</v>
       </c>
       <c r="M38" t="n">
-        <v>234.9569476325869</v>
+        <v>234.9569476325868</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7587966852082</v>
+        <v>238.7587966852081</v>
       </c>
       <c r="O38" t="n">
-        <v>225.4531613074685</v>
+        <v>225.4531613074684</v>
       </c>
       <c r="P38" t="n">
-        <v>192.4190571326905</v>
+        <v>192.4190571326904</v>
       </c>
       <c r="Q38" t="n">
         <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
-        <v>84.05381453646174</v>
+        <v>84.05381453646173</v>
       </c>
       <c r="S38" t="n">
         <v>30.49173261297231</v>
       </c>
       <c r="T38" t="n">
-        <v>5.857490269370762</v>
+        <v>5.857490269370761</v>
       </c>
       <c r="U38" t="n">
         <v>0.1070472236549767</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7159414256594353</v>
+        <v>0.7159414256594352</v>
       </c>
       <c r="H39" t="n">
-        <v>6.914486926763495</v>
+        <v>6.914486926763493</v>
       </c>
       <c r="I39" t="n">
         <v>24.64973768169547</v>
@@ -33976,16 +33976,16 @@
         <v>67.64076425495568</v>
       </c>
       <c r="K39" t="n">
-        <v>115.6088397741378</v>
+        <v>89.99988752637634</v>
       </c>
       <c r="L39" t="n">
         <v>155.450352093291</v>
       </c>
       <c r="M39" t="n">
-        <v>181.4032287734455</v>
+        <v>181.4032287734454</v>
       </c>
       <c r="N39" t="n">
-        <v>155.6142811247842</v>
+        <v>180.8220915618273</v>
       </c>
       <c r="O39" t="n">
         <v>170.3406777094183</v>
@@ -33994,10 +33994,10 @@
         <v>136.7134113612302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>91.38929496663246</v>
       </c>
       <c r="R39" t="n">
-        <v>44.45117027032882</v>
+        <v>44.4511702703288</v>
       </c>
       <c r="S39" t="n">
         <v>13.29829797222678</v>
@@ -34006,7 +34006,7 @@
         <v>2.885746360443073</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0471014095828576</v>
+        <v>0.04710140958285759</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,34 +34046,34 @@
         <v>0.6002212412416604</v>
       </c>
       <c r="H40" t="n">
-        <v>5.336512490312222</v>
+        <v>5.336512490312221</v>
       </c>
       <c r="I40" t="n">
-        <v>18.05028969115831</v>
+        <v>18.0502896911583</v>
       </c>
       <c r="J40" t="n">
-        <v>42.4356417557854</v>
+        <v>42.43564175578539</v>
       </c>
       <c r="K40" t="n">
-        <v>69.73479511880382</v>
+        <v>69.7347951188038</v>
       </c>
       <c r="L40" t="n">
-        <v>89.23652890241925</v>
+        <v>89.23652890241924</v>
       </c>
       <c r="M40" t="n">
-        <v>94.08740784299955</v>
+        <v>94.08740784299954</v>
       </c>
       <c r="N40" t="n">
-        <v>91.8502195801898</v>
+        <v>91.85021958018979</v>
       </c>
       <c r="O40" t="n">
-        <v>84.83854417113946</v>
+        <v>84.83854417113945</v>
       </c>
       <c r="P40" t="n">
-        <v>72.59403084980953</v>
+        <v>72.59403084980951</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.26034411888123</v>
+        <v>50.26034411888122</v>
       </c>
       <c r="R40" t="n">
         <v>26.98812962892047</v>
@@ -34082,10 +34082,10 @@
         <v>10.46021926782057</v>
       </c>
       <c r="T40" t="n">
-        <v>2.564581667123458</v>
+        <v>2.564581667123457</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03273934043136334</v>
+        <v>0.03273934043136333</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,10 +34125,10 @@
         <v>1.338090295687209</v>
       </c>
       <c r="H41" t="n">
-        <v>13.70371724070664</v>
+        <v>13.70371724070663</v>
       </c>
       <c r="I41" t="n">
-        <v>51.58672612448119</v>
+        <v>51.58672612448118</v>
       </c>
       <c r="J41" t="n">
         <v>113.5687412335824</v>
@@ -34137,31 +34137,31 @@
         <v>170.210103450022</v>
       </c>
       <c r="L41" t="n">
-        <v>211.1606843366595</v>
+        <v>211.1606843366594</v>
       </c>
       <c r="M41" t="n">
-        <v>234.9569476325869</v>
+        <v>234.9569476325868</v>
       </c>
       <c r="N41" t="n">
-        <v>238.7587966852082</v>
+        <v>238.7587966852081</v>
       </c>
       <c r="O41" t="n">
-        <v>225.4531613074685</v>
+        <v>225.4531613074684</v>
       </c>
       <c r="P41" t="n">
-        <v>192.4190571326905</v>
+        <v>192.4190571326904</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
       </c>
       <c r="R41" t="n">
-        <v>84.05381453646174</v>
+        <v>84.05381453646173</v>
       </c>
       <c r="S41" t="n">
         <v>30.49173261297231</v>
       </c>
       <c r="T41" t="n">
-        <v>5.857490269370762</v>
+        <v>5.857490269370761</v>
       </c>
       <c r="U41" t="n">
         <v>0.1070472236549767</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7159414256594353</v>
+        <v>0.7159414256594352</v>
       </c>
       <c r="H42" t="n">
-        <v>6.914486926763495</v>
+        <v>6.914486926763493</v>
       </c>
       <c r="I42" t="n">
         <v>24.64973768169547</v>
@@ -34216,13 +34216,13 @@
         <v>115.6088397741378</v>
       </c>
       <c r="L42" t="n">
-        <v>155.450352093291</v>
+        <v>130.2425416562479</v>
       </c>
       <c r="M42" t="n">
-        <v>181.4032287734455</v>
+        <v>181.4032287734454</v>
       </c>
       <c r="N42" t="n">
-        <v>155.2131393140655</v>
+        <v>180.8220915618272</v>
       </c>
       <c r="O42" t="n">
         <v>170.3406777094183</v>
@@ -34231,10 +34231,10 @@
         <v>136.7134113612302</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.38929496663248</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
-        <v>44.45117027032882</v>
+        <v>44.4511702703288</v>
       </c>
       <c r="S42" t="n">
         <v>13.29829797222678</v>
@@ -34243,7 +34243,7 @@
         <v>2.885746360443073</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0471014095828576</v>
+        <v>0.04710140958285759</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,34 +34283,34 @@
         <v>0.6002212412416604</v>
       </c>
       <c r="H43" t="n">
-        <v>5.336512490312222</v>
+        <v>5.336512490312221</v>
       </c>
       <c r="I43" t="n">
-        <v>18.05028969115831</v>
+        <v>18.0502896911583</v>
       </c>
       <c r="J43" t="n">
-        <v>42.4356417557854</v>
+        <v>42.43564175578539</v>
       </c>
       <c r="K43" t="n">
-        <v>69.73479511880382</v>
+        <v>69.7347951188038</v>
       </c>
       <c r="L43" t="n">
-        <v>89.23652890241925</v>
+        <v>89.23652890241924</v>
       </c>
       <c r="M43" t="n">
-        <v>94.08740784299955</v>
+        <v>94.08740784299954</v>
       </c>
       <c r="N43" t="n">
-        <v>91.8502195801898</v>
+        <v>91.85021958018979</v>
       </c>
       <c r="O43" t="n">
-        <v>84.83854417113946</v>
+        <v>84.83854417113945</v>
       </c>
       <c r="P43" t="n">
-        <v>72.59403084980953</v>
+        <v>72.59403084980951</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.26034411888123</v>
+        <v>50.26034411888122</v>
       </c>
       <c r="R43" t="n">
         <v>26.98812962892047</v>
@@ -34319,10 +34319,10 @@
         <v>10.46021926782057</v>
       </c>
       <c r="T43" t="n">
-        <v>2.564581667123458</v>
+        <v>2.564581667123457</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03273934043136334</v>
+        <v>0.03273934043136333</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.386528083681303</v>
+        <v>1.338090295687209</v>
       </c>
       <c r="H44" t="n">
-        <v>14.19978073700115</v>
+        <v>13.70371724070663</v>
       </c>
       <c r="I44" t="n">
-        <v>53.45412394612349</v>
+        <v>51.58672612448118</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>113.5687412335824</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3715717245757</v>
+        <v>170.210103450022</v>
       </c>
       <c r="L44" t="n">
-        <v>218.8045305655374</v>
+        <v>211.1606843366594</v>
       </c>
       <c r="M44" t="n">
-        <v>243.4621993737048</v>
+        <v>234.9569476325868</v>
       </c>
       <c r="N44" t="n">
-        <v>247.4016722914643</v>
+        <v>238.7587966852081</v>
       </c>
       <c r="O44" t="n">
-        <v>233.6143836593583</v>
+        <v>225.4531613074684</v>
       </c>
       <c r="P44" t="n">
-        <v>199.3844715934761</v>
+        <v>192.4190571326904</v>
       </c>
       <c r="Q44" t="n">
-        <v>149.7294345966394</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
-        <v>87.09649473654572</v>
+        <v>84.05381453646173</v>
       </c>
       <c r="S44" t="n">
-        <v>31.59550870688772</v>
+        <v>30.49173261297231</v>
       </c>
       <c r="T44" t="n">
-        <v>6.069526686314907</v>
+        <v>5.857490269370761</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1109222466945042</v>
+        <v>0.1070472236549767</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7418579270375959</v>
+        <v>0.7159414256594352</v>
       </c>
       <c r="H45" t="n">
-        <v>7.164785769020993</v>
+        <v>6.914486926763493</v>
       </c>
       <c r="I45" t="n">
-        <v>25.54203827739092</v>
+        <v>24.64973768169547</v>
       </c>
       <c r="J45" t="n">
-        <v>70.08930529086339</v>
+        <v>67.64076425495568</v>
       </c>
       <c r="K45" t="n">
-        <v>102.5707551399408</v>
+        <v>89.99988752637623</v>
       </c>
       <c r="L45" t="n">
-        <v>161.0775292894569</v>
+        <v>155.450352093291</v>
       </c>
       <c r="M45" t="n">
-        <v>187.9698791445698</v>
+        <v>181.4032287734454</v>
       </c>
       <c r="N45" t="n">
-        <v>192.9448825236947</v>
+        <v>180.8220915618272</v>
       </c>
       <c r="O45" t="n">
-        <v>176.5068726667038</v>
+        <v>170.3406777094183</v>
       </c>
       <c r="P45" t="n">
-        <v>141.662326435802</v>
+        <v>136.7134113612302</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.69751363378154</v>
+        <v>91.38929496663246</v>
       </c>
       <c r="R45" t="n">
-        <v>46.06026673308865</v>
+        <v>44.4511702703288</v>
       </c>
       <c r="S45" t="n">
-        <v>13.77968561843955</v>
+        <v>13.29829797222678</v>
       </c>
       <c r="T45" t="n">
-        <v>2.990208048015572</v>
+        <v>2.885746360443073</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04880644256826291</v>
+        <v>0.04710140958285759</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6219487654054046</v>
+        <v>0.6002212412416604</v>
       </c>
       <c r="H46" t="n">
-        <v>5.529689932422601</v>
+        <v>5.336512490312221</v>
       </c>
       <c r="I46" t="n">
-        <v>18.70369559964617</v>
+        <v>18.0502896911583</v>
       </c>
       <c r="J46" t="n">
-        <v>43.9717777141621</v>
+        <v>42.43564175578539</v>
       </c>
       <c r="K46" t="n">
-        <v>72.25913838073699</v>
+        <v>69.7347951188038</v>
       </c>
       <c r="L46" t="n">
-        <v>92.46681917672717</v>
+        <v>89.23652890241924</v>
       </c>
       <c r="M46" t="n">
-        <v>97.49329601713991</v>
+        <v>94.08740784299954</v>
       </c>
       <c r="N46" t="n">
-        <v>95.17512334608348</v>
+        <v>91.85021958018979</v>
       </c>
       <c r="O46" t="n">
-        <v>87.90963095021122</v>
+        <v>84.83854417113945</v>
       </c>
       <c r="P46" t="n">
-        <v>75.2218761359409</v>
+        <v>72.59403084980951</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.07972798317438</v>
+        <v>50.26034411888122</v>
       </c>
       <c r="R46" t="n">
-        <v>27.96507812450118</v>
+        <v>26.98812962892047</v>
       </c>
       <c r="S46" t="n">
-        <v>10.83887075711055</v>
+        <v>10.46021926782057</v>
       </c>
       <c r="T46" t="n">
-        <v>2.657417452186728</v>
+        <v>2.564581667123457</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03392447811302211</v>
+        <v>0.03273934043136333</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>60.2322170379165</v>
       </c>
       <c r="N12" t="n">
-        <v>60.2322170379165</v>
+        <v>56.17343182070656</v>
       </c>
       <c r="O12" t="n">
-        <v>20.38630874358882</v>
+        <v>59.52868238327905</v>
       </c>
       <c r="P12" t="n">
-        <v>35.08358842248025</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>9.041157079097104</v>
+        <v>9.041157079097133</v>
       </c>
       <c r="L14" t="n">
-        <v>35.44478433310402</v>
+        <v>35.44478433310408</v>
       </c>
       <c r="M14" t="n">
-        <v>60.23221703791648</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="N14" t="n">
         <v>60.2322170379165</v>
       </c>
       <c r="O14" t="n">
-        <v>51.90085825882528</v>
+        <v>51.90085825882534</v>
       </c>
       <c r="P14" t="n">
-        <v>21.64400947398153</v>
+        <v>21.64400947398155</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>13.71099607148915</v>
+        <v>13.71099607148916</v>
       </c>
       <c r="L15" t="n">
-        <v>48.84991590744981</v>
+        <v>48.84991590744984</v>
       </c>
       <c r="M15" t="n">
         <v>60.2322170379165</v>
       </c>
       <c r="N15" t="n">
-        <v>21.08984339822641</v>
+        <v>60.2322170379165</v>
       </c>
       <c r="O15" t="n">
-        <v>59.52868238327902</v>
+        <v>20.38630874358882</v>
       </c>
       <c r="P15" t="n">
-        <v>35.08358842248022</v>
+        <v>35.08358842248025</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>26.40458443927017</v>
+        <v>26.40458443927011</v>
       </c>
       <c r="L17" t="n">
-        <v>56.98565135267313</v>
+        <v>56.98565135267302</v>
       </c>
       <c r="M17" t="n">
-        <v>84.20058207791718</v>
+        <v>84.20058207791706</v>
       </c>
       <c r="N17" t="n">
-        <v>88.59230365245278</v>
+        <v>88.5923036524527</v>
       </c>
       <c r="O17" t="n">
-        <v>74.89972560063998</v>
+        <v>74.8997256006399</v>
       </c>
       <c r="P17" t="n">
-        <v>41.27301065261884</v>
+        <v>41.27301065261875</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>25.50445398570481</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>38.6573018010823</v>
+        <v>64.70767547621544</v>
       </c>
       <c r="M18" t="n">
-        <v>88.21986007744566</v>
+        <v>88.21986007744557</v>
       </c>
       <c r="N18" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="O18" t="n">
-        <v>76.90542984973355</v>
+        <v>76.35951016030519</v>
       </c>
       <c r="P18" t="n">
-        <v>49.02996022542783</v>
+        <v>49.02996022542777</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36047,13 +36047,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.169796804651682</v>
+        <v>1.169796804651654</v>
       </c>
       <c r="M19" t="n">
-        <v>3.372663439371223</v>
+        <v>3.372663439371195</v>
       </c>
       <c r="N19" t="n">
-        <v>8.451450696476826</v>
+        <v>8.451450696476797</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>26.40458443927014</v>
+        <v>26.40458443927011</v>
       </c>
       <c r="L20" t="n">
-        <v>56.98565135267307</v>
+        <v>56.98565135267302</v>
       </c>
       <c r="M20" t="n">
-        <v>84.20058207791715</v>
+        <v>84.20058207791706</v>
       </c>
       <c r="N20" t="n">
-        <v>88.59230365245273</v>
+        <v>88.5923036524527</v>
       </c>
       <c r="O20" t="n">
-        <v>74.89972560063993</v>
+        <v>74.8997256006399</v>
       </c>
       <c r="P20" t="n">
-        <v>41.27301065261881</v>
+        <v>41.27301065261875</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>25.50445398570479</v>
+        <v>25.50445398570477</v>
       </c>
       <c r="L21" t="n">
-        <v>64.70767547621547</v>
+        <v>64.70767547621544</v>
       </c>
       <c r="M21" t="n">
-        <v>88.2198600774456</v>
+        <v>88.21986007744557</v>
       </c>
       <c r="N21" t="n">
-        <v>94.03885183617756</v>
+        <v>94.0388518361775</v>
       </c>
       <c r="O21" t="n">
-        <v>50.85505617460052</v>
+        <v>76.90542984973349</v>
       </c>
       <c r="P21" t="n">
-        <v>49.0299602254278</v>
+        <v>22.97958655029472</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36284,13 +36284,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.169796804651668</v>
+        <v>1.169796804651654</v>
       </c>
       <c r="M22" t="n">
-        <v>3.372663439371209</v>
+        <v>3.372663439371195</v>
       </c>
       <c r="N22" t="n">
-        <v>8.451450696476812</v>
+        <v>8.451450696476797</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>89.01610672413356</v>
       </c>
       <c r="N24" t="n">
-        <v>70.24216827061746</v>
+        <v>95.44997870766063</v>
       </c>
       <c r="O24" t="n">
         <v>77.65311882052946</v>
       </c>
       <c r="P24" t="n">
-        <v>49.63004654191559</v>
+        <v>24.02109429415396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.4011418107184852</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>65.39000523637277</v>
       </c>
       <c r="M30" t="n">
-        <v>63.40715447637211</v>
+        <v>89.01610672413356</v>
       </c>
       <c r="N30" t="n">
-        <v>95.44997870766068</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="O30" t="n">
         <v>77.65311882052946</v>
       </c>
       <c r="P30" t="n">
-        <v>49.63004654191559</v>
+        <v>24.42223610487228</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4011418107184852</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>27.15170027078463</v>
+        <v>27.1517002707846</v>
       </c>
       <c r="L32" t="n">
-        <v>57.91251460616778</v>
+        <v>57.91251460616775</v>
       </c>
       <c r="M32" t="n">
-        <v>85.2318960348596</v>
+        <v>85.23189603485957</v>
       </c>
       <c r="N32" t="n">
-        <v>89.64030534742409</v>
+        <v>89.64030534742403</v>
       </c>
       <c r="O32" t="n">
-        <v>75.88932388337207</v>
+        <v>75.88932388337204</v>
       </c>
       <c r="P32" t="n">
-        <v>42.11760989176526</v>
+        <v>42.11760989176523</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>26.0119044408045</v>
+        <v>26.01190444080449</v>
       </c>
       <c r="L33" t="n">
-        <v>65.39000523637277</v>
+        <v>65.39000523637274</v>
       </c>
       <c r="M33" t="n">
-        <v>89.01610672413356</v>
+        <v>89.01610672413354</v>
       </c>
       <c r="N33" t="n">
-        <v>69.84102645989903</v>
+        <v>95.44997870766058</v>
       </c>
       <c r="O33" t="n">
-        <v>77.65311882052946</v>
+        <v>77.65311882052943</v>
       </c>
       <c r="P33" t="n">
-        <v>49.63004654191559</v>
+        <v>24.02109429415396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.4011418107184852</v>
+        <v>0.401141810718471</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,13 +37232,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.561489319614367</v>
+        <v>1.561489319614353</v>
       </c>
       <c r="M34" t="n">
-        <v>3.785648277056282</v>
+        <v>3.785648277056268</v>
       </c>
       <c r="N34" t="n">
-        <v>8.854615677788232</v>
+        <v>8.854615677788217</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>27.15170027078463</v>
+        <v>27.1517002707846</v>
       </c>
       <c r="L35" t="n">
-        <v>57.91251460616778</v>
+        <v>57.91251460616775</v>
       </c>
       <c r="M35" t="n">
-        <v>85.2318960348596</v>
+        <v>85.23189603485957</v>
       </c>
       <c r="N35" t="n">
-        <v>89.64030534742409</v>
+        <v>89.64030534742403</v>
       </c>
       <c r="O35" t="n">
-        <v>75.88932388337207</v>
+        <v>75.88932388337204</v>
       </c>
       <c r="P35" t="n">
-        <v>42.11760989176526</v>
+        <v>42.11760989176523</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8040940037614762</v>
+        <v>0.8040940037614807</v>
       </c>
       <c r="L36" t="n">
-        <v>65.39000523637277</v>
+        <v>65.39000523637274</v>
       </c>
       <c r="M36" t="n">
-        <v>89.01610672413356</v>
+        <v>89.01610672413354</v>
       </c>
       <c r="N36" t="n">
-        <v>95.44997870766066</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="O36" t="n">
-        <v>77.65311882052946</v>
+        <v>77.65311882052943</v>
       </c>
       <c r="P36" t="n">
-        <v>49.63004654191559</v>
+        <v>49.63004654191556</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,13 +37469,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.561489319614367</v>
+        <v>1.561489319614353</v>
       </c>
       <c r="M37" t="n">
-        <v>3.785648277056282</v>
+        <v>3.785648277056268</v>
       </c>
       <c r="N37" t="n">
-        <v>8.854615677788232</v>
+        <v>8.854615677788217</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>27.15170027078463</v>
+        <v>27.1517002707846</v>
       </c>
       <c r="L38" t="n">
-        <v>57.91251460616778</v>
+        <v>57.91251460616775</v>
       </c>
       <c r="M38" t="n">
-        <v>85.2318960348596</v>
+        <v>85.23189603485957</v>
       </c>
       <c r="N38" t="n">
-        <v>89.64030534742409</v>
+        <v>89.64030534742403</v>
       </c>
       <c r="O38" t="n">
-        <v>75.88932388337207</v>
+        <v>75.88932388337204</v>
       </c>
       <c r="P38" t="n">
-        <v>42.11760989176526</v>
+        <v>42.11760989176523</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>26.0119044408045</v>
+        <v>0.4029521930429935</v>
       </c>
       <c r="L39" t="n">
-        <v>65.39000523637277</v>
+        <v>65.39000523637274</v>
       </c>
       <c r="M39" t="n">
-        <v>89.01610672413356</v>
+        <v>89.01610672413354</v>
       </c>
       <c r="N39" t="n">
-        <v>70.24216827061757</v>
+        <v>95.44997870766061</v>
       </c>
       <c r="O39" t="n">
-        <v>77.65311882052946</v>
+        <v>77.65311882052943</v>
       </c>
       <c r="P39" t="n">
-        <v>49.63004654191559</v>
+        <v>49.63004654191556</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.401141810718471</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,13 +37706,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.561489319614367</v>
+        <v>1.561489319614353</v>
       </c>
       <c r="M40" t="n">
-        <v>3.785648277056282</v>
+        <v>3.785648277056268</v>
       </c>
       <c r="N40" t="n">
-        <v>8.854615677788232</v>
+        <v>8.854615677788217</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>27.15170027078463</v>
+        <v>27.1517002707846</v>
       </c>
       <c r="L41" t="n">
-        <v>57.91251460616778</v>
+        <v>57.91251460616775</v>
       </c>
       <c r="M41" t="n">
-        <v>85.2318960348596</v>
+        <v>85.23189603485957</v>
       </c>
       <c r="N41" t="n">
-        <v>89.64030534742409</v>
+        <v>89.64030534742403</v>
       </c>
       <c r="O41" t="n">
-        <v>75.88932388337207</v>
+        <v>75.88932388337204</v>
       </c>
       <c r="P41" t="n">
-        <v>42.11760989176526</v>
+        <v>42.11760989176523</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>26.0119044408045</v>
+        <v>26.01190444080449</v>
       </c>
       <c r="L42" t="n">
-        <v>65.39000523637277</v>
+        <v>40.18219479932964</v>
       </c>
       <c r="M42" t="n">
-        <v>89.01610672413356</v>
+        <v>89.01610672413354</v>
       </c>
       <c r="N42" t="n">
-        <v>69.84102645989886</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="O42" t="n">
-        <v>77.65311882052946</v>
+        <v>77.65311882052943</v>
       </c>
       <c r="P42" t="n">
-        <v>49.63004654191559</v>
+        <v>49.63004654191556</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4011418107184852</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,13 +37943,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.561489319614367</v>
+        <v>1.561489319614353</v>
       </c>
       <c r="M43" t="n">
-        <v>3.785648277056282</v>
+        <v>3.785648277056268</v>
       </c>
       <c r="N43" t="n">
-        <v>8.854615677788232</v>
+        <v>8.854615677788217</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>33.31316854533833</v>
+        <v>27.1517002707846</v>
       </c>
       <c r="L44" t="n">
-        <v>65.55636083504572</v>
+        <v>57.91251460616775</v>
       </c>
       <c r="M44" t="n">
-        <v>93.73714777597752</v>
+        <v>85.23189603485957</v>
       </c>
       <c r="N44" t="n">
-        <v>98.28318095368022</v>
+        <v>89.64030534742403</v>
       </c>
       <c r="O44" t="n">
-        <v>84.05054623526195</v>
+        <v>75.88932388337204</v>
       </c>
       <c r="P44" t="n">
-        <v>49.08302435255092</v>
+        <v>42.11760989176523</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.230736178247241</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>12.97381980660742</v>
+        <v>0.4029521930428804</v>
       </c>
       <c r="L45" t="n">
-        <v>71.01718243253872</v>
+        <v>65.39000523637274</v>
       </c>
       <c r="M45" t="n">
-        <v>95.58275709525786</v>
+        <v>89.01610672413354</v>
       </c>
       <c r="N45" t="n">
-        <v>107.5727696695281</v>
+        <v>95.44997870766059</v>
       </c>
       <c r="O45" t="n">
-        <v>83.81931377781488</v>
+        <v>77.65311882052943</v>
       </c>
       <c r="P45" t="n">
-        <v>54.57896161648733</v>
+        <v>49.63004654191556</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.709360477867548</v>
+        <v>0.401141810718471</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,13 +38180,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>4.791779593922286</v>
+        <v>1.561489319614353</v>
       </c>
       <c r="M46" t="n">
-        <v>7.19153645119664</v>
+        <v>3.785648277056268</v>
       </c>
       <c r="N46" t="n">
-        <v>12.17951944368191</v>
+        <v>8.854615677788217</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
